--- a/Data/DataFrame_Customers_with_Cluster.xlsx
+++ b/Data/DataFrame_Customers_with_Cluster.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\DataEnrichment\Project-4-How_to_Market_New_Cards\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC6DFE-ACE4-477A-BE2B-F98AB9B28EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0800DBC6-76A1-4574-8892-59BF515E8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="11">
   <si>
     <t>Age</t>
   </si>
@@ -45,6 +58,15 @@
   </si>
   <si>
     <t>Cluster</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -421,7 +443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:I854"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -484,8 +508,8 @@
       <c r="H5" s="2">
         <v>6.3</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -510,8 +534,8 @@
       <c r="H6" s="2">
         <v>12.8</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -536,8 +560,8 @@
       <c r="H7" s="2">
         <v>20.9</v>
       </c>
-      <c r="I7" s="2">
-        <v>2</v>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -562,8 +586,8 @@
       <c r="H8" s="2">
         <v>6.3</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -588,8 +612,8 @@
       <c r="H9" s="2">
         <v>7.2</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -614,8 +638,8 @@
       <c r="H10" s="2">
         <v>10.9</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -640,8 +664,8 @@
       <c r="H11" s="2">
         <v>1.6</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -666,8 +690,8 @@
       <c r="H12" s="2">
         <v>6.6</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -692,8 +716,8 @@
       <c r="H13" s="2">
         <v>15.5</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -718,8 +742,8 @@
       <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="I14" s="2">
-        <v>1</v>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -744,8 +768,8 @@
       <c r="H15" s="2">
         <v>6.1</v>
       </c>
-      <c r="I15" s="2">
-        <v>2</v>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -770,8 +794,8 @@
       <c r="H16" s="2">
         <v>1.6</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -796,8 +820,8 @@
       <c r="H17" s="2">
         <v>6.5</v>
       </c>
-      <c r="I17" s="2">
-        <v>0</v>
+      <c r="I17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -822,8 +846,8 @@
       <c r="H18" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I18" s="2">
-        <v>0</v>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -848,8 +872,8 @@
       <c r="H19" s="2">
         <v>9.4</v>
       </c>
-      <c r="I19" s="2">
-        <v>2</v>
+      <c r="I19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -874,8 +898,8 @@
       <c r="H20" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I20" s="2">
-        <v>0</v>
+      <c r="I20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -900,8 +924,8 @@
       <c r="H21" s="2">
         <v>2.5</v>
       </c>
-      <c r="I21" s="2">
-        <v>0</v>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -926,8 +950,8 @@
       <c r="H22" s="2">
         <v>10.6</v>
       </c>
-      <c r="I22" s="2">
-        <v>0</v>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -952,8 +976,8 @@
       <c r="H23" s="2">
         <v>10.8</v>
       </c>
-      <c r="I23" s="2">
-        <v>1</v>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -978,8 +1002,8 @@
       <c r="H24" s="2">
         <v>10.9</v>
       </c>
-      <c r="I24" s="2">
-        <v>0</v>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -1004,8 +1028,8 @@
       <c r="H25" s="2">
         <v>4.2</v>
       </c>
-      <c r="I25" s="2">
-        <v>0</v>
+      <c r="I25" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1030,8 +1054,8 @@
       <c r="H26" s="2">
         <v>13</v>
       </c>
-      <c r="I26" s="2">
-        <v>0</v>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1056,8 +1080,8 @@
       <c r="H27" s="2">
         <v>19.8</v>
       </c>
-      <c r="I27" s="2">
-        <v>2</v>
+      <c r="I27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1082,8 +1106,8 @@
       <c r="H28" s="2">
         <v>8.4</v>
       </c>
-      <c r="I28" s="2">
-        <v>1</v>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -1108,8 +1132,8 @@
       <c r="H29" s="2">
         <v>17.3</v>
       </c>
-      <c r="I29" s="2">
-        <v>1</v>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1134,8 +1158,8 @@
       <c r="H30" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I30" s="2">
-        <v>0</v>
+      <c r="I30" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1160,8 +1184,8 @@
       <c r="H31" s="2">
         <v>2.6</v>
       </c>
-      <c r="I31" s="2">
-        <v>0</v>
+      <c r="I31" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -1186,8 +1210,8 @@
       <c r="H32" s="2">
         <v>13.5</v>
       </c>
-      <c r="I32" s="2">
-        <v>0</v>
+      <c r="I32" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1212,8 +1236,8 @@
       <c r="H33" s="2">
         <v>2.4</v>
       </c>
-      <c r="I33" s="2">
-        <v>0</v>
+      <c r="I33" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -1238,8 +1262,8 @@
       <c r="H34" s="2">
         <v>10.1</v>
       </c>
-      <c r="I34" s="2">
-        <v>0</v>
+      <c r="I34" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1264,8 +1288,8 @@
       <c r="H35" s="2">
         <v>2.5</v>
       </c>
-      <c r="I35" s="2">
-        <v>1</v>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1290,8 +1314,8 @@
       <c r="H36" s="2">
         <v>15</v>
       </c>
-      <c r="I36" s="2">
-        <v>1</v>
+      <c r="I36" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1316,8 +1340,8 @@
       <c r="H37" s="2">
         <v>3.9</v>
       </c>
-      <c r="I37" s="2">
-        <v>2</v>
+      <c r="I37" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1342,8 +1366,8 @@
       <c r="H38" s="2">
         <v>10</v>
       </c>
-      <c r="I38" s="2">
-        <v>0</v>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1368,8 +1392,8 @@
       <c r="H39" s="2">
         <v>7.7</v>
       </c>
-      <c r="I39" s="2">
-        <v>0</v>
+      <c r="I39" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -1394,8 +1418,8 @@
       <c r="H40" s="2">
         <v>8.4</v>
       </c>
-      <c r="I40" s="2">
-        <v>0</v>
+      <c r="I40" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1420,8 +1444,8 @@
       <c r="H41" s="2">
         <v>5.4</v>
       </c>
-      <c r="I41" s="2">
-        <v>2</v>
+      <c r="I41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1446,8 +1470,8 @@
       <c r="H42" s="2">
         <v>12.9</v>
       </c>
-      <c r="I42" s="2">
-        <v>2</v>
+      <c r="I42" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1472,8 +1496,8 @@
       <c r="H43" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I43" s="2">
-        <v>0</v>
+      <c r="I43" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1498,8 +1522,8 @@
       <c r="H44" s="2">
         <v>6.8</v>
       </c>
-      <c r="I44" s="2">
-        <v>1</v>
+      <c r="I44" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -1524,8 +1548,8 @@
       <c r="H45" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I45" s="2">
-        <v>2</v>
+      <c r="I45" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -1550,8 +1574,8 @@
       <c r="H46" s="2">
         <v>12</v>
       </c>
-      <c r="I46" s="2">
-        <v>1</v>
+      <c r="I46" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -1576,8 +1600,8 @@
       <c r="H47" s="2">
         <v>23.8</v>
       </c>
-      <c r="I47" s="2">
-        <v>0</v>
+      <c r="I47" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -1602,8 +1626,8 @@
       <c r="H48" s="2">
         <v>5.9</v>
       </c>
-      <c r="I48" s="2">
-        <v>1</v>
+      <c r="I48" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -1628,8 +1652,8 @@
       <c r="H49" s="2">
         <v>21.3</v>
       </c>
-      <c r="I49" s="2">
-        <v>0</v>
+      <c r="I49" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -1654,8 +1678,8 @@
       <c r="H50" s="2">
         <v>13.1</v>
       </c>
-      <c r="I50" s="2">
-        <v>1</v>
+      <c r="I50" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -1680,8 +1704,8 @@
       <c r="H51" s="2">
         <v>17.5</v>
       </c>
-      <c r="I51" s="2">
-        <v>0</v>
+      <c r="I51" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -1706,8 +1730,8 @@
       <c r="H52" s="2">
         <v>3.5</v>
       </c>
-      <c r="I52" s="2">
-        <v>0</v>
+      <c r="I52" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1732,8 +1756,8 @@
       <c r="H53" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I53" s="2">
-        <v>0</v>
+      <c r="I53" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1758,8 +1782,8 @@
       <c r="H54" s="2">
         <v>6.2</v>
       </c>
-      <c r="I54" s="2">
-        <v>0</v>
+      <c r="I54" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -1784,8 +1808,8 @@
       <c r="H55" s="2">
         <v>5.5</v>
       </c>
-      <c r="I55" s="2">
-        <v>1</v>
+      <c r="I55" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -1810,8 +1834,8 @@
       <c r="H56" s="2">
         <v>32.5</v>
       </c>
-      <c r="I56" s="2">
-        <v>1</v>
+      <c r="I56" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -1836,8 +1860,8 @@
       <c r="H57" s="2">
         <v>24.4</v>
       </c>
-      <c r="I57" s="2">
-        <v>2</v>
+      <c r="I57" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -1862,8 +1886,8 @@
       <c r="H58" s="2">
         <v>3.3</v>
       </c>
-      <c r="I58" s="2">
-        <v>1</v>
+      <c r="I58" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -1888,8 +1912,8 @@
       <c r="H59" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="I59" s="2">
-        <v>2</v>
+      <c r="I59" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -1914,8 +1938,8 @@
       <c r="H60" s="2">
         <v>12.6</v>
       </c>
-      <c r="I60" s="2">
-        <v>2</v>
+      <c r="I60" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -1940,8 +1964,8 @@
       <c r="H61" s="2">
         <v>4.8</v>
       </c>
-      <c r="I61" s="2">
-        <v>2</v>
+      <c r="I61" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -1966,8 +1990,8 @@
       <c r="H62" s="2">
         <v>6</v>
       </c>
-      <c r="I62" s="2">
-        <v>0</v>
+      <c r="I62" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -1992,8 +2016,8 @@
       <c r="H63" s="2">
         <v>6.6</v>
       </c>
-      <c r="I63" s="2">
-        <v>0</v>
+      <c r="I63" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -2018,8 +2042,8 @@
       <c r="H64" s="2">
         <v>4.8</v>
       </c>
-      <c r="I64" s="2">
-        <v>0</v>
+      <c r="I64" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -2044,8 +2068,8 @@
       <c r="H65" s="2">
         <v>13.7</v>
       </c>
-      <c r="I65" s="2">
-        <v>1</v>
+      <c r="I65" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -2070,8 +2094,8 @@
       <c r="H66" s="2">
         <v>15.4</v>
       </c>
-      <c r="I66" s="2">
-        <v>0</v>
+      <c r="I66" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -2096,8 +2120,8 @@
       <c r="H67" s="2">
         <v>11.2</v>
       </c>
-      <c r="I67" s="2">
-        <v>1</v>
+      <c r="I67" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -2122,8 +2146,8 @@
       <c r="H68" s="2">
         <v>13.4</v>
       </c>
-      <c r="I68" s="2">
-        <v>1</v>
+      <c r="I68" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -2148,8 +2172,8 @@
       <c r="H69" s="2">
         <v>3.7</v>
       </c>
-      <c r="I69" s="2">
-        <v>0</v>
+      <c r="I69" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -2174,8 +2198,8 @@
       <c r="H70" s="2">
         <v>8</v>
       </c>
-      <c r="I70" s="2">
-        <v>0</v>
+      <c r="I70" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -2200,8 +2224,8 @@
       <c r="H71" s="2">
         <v>4</v>
       </c>
-      <c r="I71" s="2">
-        <v>0</v>
+      <c r="I71" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -2226,8 +2250,8 @@
       <c r="H72" s="2">
         <v>10.5</v>
       </c>
-      <c r="I72" s="2">
-        <v>2</v>
+      <c r="I72" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -2252,8 +2276,8 @@
       <c r="H73" s="2">
         <v>14.7</v>
       </c>
-      <c r="I73" s="2">
-        <v>0</v>
+      <c r="I73" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -2278,8 +2302,8 @@
       <c r="H74" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="I74" s="2">
-        <v>2</v>
+      <c r="I74" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -2304,8 +2328,8 @@
       <c r="H75" s="2">
         <v>2.8</v>
       </c>
-      <c r="I75" s="2">
-        <v>0</v>
+      <c r="I75" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -2330,8 +2354,8 @@
       <c r="H76" s="2">
         <v>1.9</v>
       </c>
-      <c r="I76" s="2">
-        <v>0</v>
+      <c r="I76" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -2356,8 +2380,8 @@
       <c r="H77" s="2">
         <v>7.2</v>
       </c>
-      <c r="I77" s="2">
-        <v>0</v>
+      <c r="I77" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -2382,8 +2406,8 @@
       <c r="H78" s="2">
         <v>15.5</v>
       </c>
-      <c r="I78" s="2">
-        <v>0</v>
+      <c r="I78" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -2408,8 +2432,8 @@
       <c r="H79" s="2">
         <v>4.8</v>
       </c>
-      <c r="I79" s="2">
-        <v>0</v>
+      <c r="I79" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -2434,8 +2458,8 @@
       <c r="H80" s="2">
         <v>12.9</v>
       </c>
-      <c r="I80" s="2">
-        <v>0</v>
+      <c r="I80" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -2460,8 +2484,8 @@
       <c r="H81" s="2">
         <v>3.3</v>
       </c>
-      <c r="I81" s="2">
-        <v>0</v>
+      <c r="I81" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -2486,8 +2510,8 @@
       <c r="H82" s="2">
         <v>7.9</v>
       </c>
-      <c r="I82" s="2">
-        <v>0</v>
+      <c r="I82" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -2512,8 +2536,8 @@
       <c r="H83" s="2">
         <v>12.2</v>
       </c>
-      <c r="I83" s="2">
-        <v>1</v>
+      <c r="I83" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -2538,8 +2562,8 @@
       <c r="H84" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I84" s="2">
-        <v>1</v>
+      <c r="I84" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -2564,8 +2588,8 @@
       <c r="H85" s="2">
         <v>10.8</v>
       </c>
-      <c r="I85" s="2">
-        <v>0</v>
+      <c r="I85" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -2590,8 +2614,8 @@
       <c r="H86" s="2">
         <v>29.7</v>
       </c>
-      <c r="I86" s="2">
-        <v>2</v>
+      <c r="I86" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -2616,8 +2640,8 @@
       <c r="H87" s="2">
         <v>6.6</v>
       </c>
-      <c r="I87" s="2">
-        <v>1</v>
+      <c r="I87" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -2642,8 +2666,8 @@
       <c r="H88" s="2">
         <v>9.1</v>
       </c>
-      <c r="I88" s="2">
-        <v>0</v>
+      <c r="I88" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -2668,8 +2692,8 @@
       <c r="H89" s="2">
         <v>15</v>
       </c>
-      <c r="I89" s="2">
-        <v>1</v>
+      <c r="I89" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -2694,8 +2718,8 @@
       <c r="H90" s="2">
         <v>5.4</v>
       </c>
-      <c r="I90" s="2">
-        <v>0</v>
+      <c r="I90" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -2720,8 +2744,8 @@
       <c r="H91" s="2">
         <v>12.2</v>
       </c>
-      <c r="I91" s="2">
-        <v>0</v>
+      <c r="I91" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -2746,8 +2770,8 @@
       <c r="H92" s="2">
         <v>10.5</v>
       </c>
-      <c r="I92" s="2">
-        <v>0</v>
+      <c r="I92" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -2772,8 +2796,8 @@
       <c r="H93" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I93" s="2">
-        <v>2</v>
+      <c r="I93" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -2798,8 +2822,8 @@
       <c r="H94" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="I94" s="2">
-        <v>2</v>
+      <c r="I94" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -2824,8 +2848,8 @@
       <c r="H95" s="2">
         <v>3.5</v>
       </c>
-      <c r="I95" s="2">
-        <v>0</v>
+      <c r="I95" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -2850,8 +2874,8 @@
       <c r="H96" s="2">
         <v>2.8</v>
       </c>
-      <c r="I96" s="2">
-        <v>0</v>
+      <c r="I96" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2876,8 +2900,8 @@
       <c r="H97" s="2">
         <v>2.5</v>
       </c>
-      <c r="I97" s="2">
-        <v>2</v>
+      <c r="I97" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -2902,8 +2926,8 @@
       <c r="H98" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="I98" s="2">
-        <v>2</v>
+      <c r="I98" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -2928,8 +2952,8 @@
       <c r="H99" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I99" s="2">
-        <v>0</v>
+      <c r="I99" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -2954,8 +2978,8 @@
       <c r="H100" s="2">
         <v>0.9</v>
       </c>
-      <c r="I100" s="2">
-        <v>0</v>
+      <c r="I100" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -2980,8 +3004,8 @@
       <c r="H101" s="2">
         <v>9.4</v>
       </c>
-      <c r="I101" s="2">
-        <v>0</v>
+      <c r="I101" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -3006,8 +3030,8 @@
       <c r="H102" s="2">
         <v>1.2</v>
       </c>
-      <c r="I102" s="2">
-        <v>0</v>
+      <c r="I102" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -3032,8 +3056,8 @@
       <c r="H103" s="2">
         <v>14.8</v>
       </c>
-      <c r="I103" s="2">
-        <v>2</v>
+      <c r="I103" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -3058,8 +3082,8 @@
       <c r="H104" s="2">
         <v>4.7</v>
       </c>
-      <c r="I104" s="2">
-        <v>0</v>
+      <c r="I104" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -3084,8 +3108,8 @@
       <c r="H105" s="2">
         <v>25.4</v>
       </c>
-      <c r="I105" s="2">
-        <v>2</v>
+      <c r="I105" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -3110,8 +3134,8 @@
       <c r="H106" s="2">
         <v>13.7</v>
       </c>
-      <c r="I106" s="2">
-        <v>1</v>
+      <c r="I106" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -3136,8 +3160,8 @@
       <c r="H107" s="2">
         <v>5.4</v>
       </c>
-      <c r="I107" s="2">
-        <v>0</v>
+      <c r="I107" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -3162,8 +3186,8 @@
       <c r="H108" s="2">
         <v>9</v>
       </c>
-      <c r="I108" s="2">
-        <v>2</v>
+      <c r="I108" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -3188,8 +3212,8 @@
       <c r="H109" s="2">
         <v>13.2</v>
       </c>
-      <c r="I109" s="2">
-        <v>2</v>
+      <c r="I109" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -3214,8 +3238,8 @@
       <c r="H110" s="2">
         <v>30.1</v>
       </c>
-      <c r="I110" s="2">
-        <v>1</v>
+      <c r="I110" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -3240,8 +3264,8 @@
       <c r="H111" s="2">
         <v>2.9</v>
       </c>
-      <c r="I111" s="2">
-        <v>0</v>
+      <c r="I111" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -3266,8 +3290,8 @@
       <c r="H112" s="2">
         <v>14.4</v>
       </c>
-      <c r="I112" s="2">
-        <v>0</v>
+      <c r="I112" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -3292,8 +3316,8 @@
       <c r="H113" s="2">
         <v>3</v>
       </c>
-      <c r="I113" s="2">
-        <v>0</v>
+      <c r="I113" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -3318,8 +3342,8 @@
       <c r="H114" s="2">
         <v>3.3</v>
       </c>
-      <c r="I114" s="2">
-        <v>0</v>
+      <c r="I114" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -3344,8 +3368,8 @@
       <c r="H115" s="2">
         <v>5.7</v>
       </c>
-      <c r="I115" s="2">
-        <v>0</v>
+      <c r="I115" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -3370,8 +3394,8 @@
       <c r="H116" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I116" s="2">
-        <v>0</v>
+      <c r="I116" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -3396,8 +3420,8 @@
       <c r="H117" s="2">
         <v>9.5</v>
       </c>
-      <c r="I117" s="2">
-        <v>0</v>
+      <c r="I117" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -3422,8 +3446,8 @@
       <c r="H118" s="2">
         <v>16</v>
       </c>
-      <c r="I118" s="2">
-        <v>2</v>
+      <c r="I118" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -3448,8 +3472,8 @@
       <c r="H119" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I119" s="2">
-        <v>0</v>
+      <c r="I119" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -3474,8 +3498,8 @@
       <c r="H120" s="2">
         <v>6.6</v>
       </c>
-      <c r="I120" s="2">
-        <v>0</v>
+      <c r="I120" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -3500,8 +3524,8 @@
       <c r="H121" s="2">
         <v>10.7</v>
       </c>
-      <c r="I121" s="2">
-        <v>0</v>
+      <c r="I121" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -3526,8 +3550,8 @@
       <c r="H122" s="2">
         <v>8.1</v>
       </c>
-      <c r="I122" s="2">
-        <v>0</v>
+      <c r="I122" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -3552,8 +3576,8 @@
       <c r="H123" s="2">
         <v>18.2</v>
       </c>
-      <c r="I123" s="2">
-        <v>1</v>
+      <c r="I123" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -3578,8 +3602,8 @@
       <c r="H124" s="2">
         <v>6</v>
       </c>
-      <c r="I124" s="2">
-        <v>0</v>
+      <c r="I124" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -3604,8 +3628,8 @@
       <c r="H125" s="2">
         <v>11.5</v>
       </c>
-      <c r="I125" s="2">
-        <v>0</v>
+      <c r="I125" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -3630,8 +3654,8 @@
       <c r="H126" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I126" s="2">
-        <v>0</v>
+      <c r="I126" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -3656,8 +3680,8 @@
       <c r="H127" s="2">
         <v>5.5</v>
       </c>
-      <c r="I127" s="2">
-        <v>0</v>
+      <c r="I127" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
@@ -3682,8 +3706,8 @@
       <c r="H128" s="2">
         <v>3.7</v>
       </c>
-      <c r="I128" s="2">
-        <v>0</v>
+      <c r="I128" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
@@ -3708,8 +3732,8 @@
       <c r="H129" s="2">
         <v>9.1</v>
       </c>
-      <c r="I129" s="2">
-        <v>0</v>
+      <c r="I129" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
@@ -3734,8 +3758,8 @@
       <c r="H130" s="2">
         <v>5</v>
       </c>
-      <c r="I130" s="2">
-        <v>0</v>
+      <c r="I130" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
@@ -3760,8 +3784,8 @@
       <c r="H131" s="2">
         <v>1.9</v>
       </c>
-      <c r="I131" s="2">
-        <v>0</v>
+      <c r="I131" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
@@ -3786,8 +3810,8 @@
       <c r="H132" s="2">
         <v>2.9</v>
       </c>
-      <c r="I132" s="2">
-        <v>0</v>
+      <c r="I132" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
@@ -3812,8 +3836,8 @@
       <c r="H133" s="2">
         <v>19.8</v>
       </c>
-      <c r="I133" s="2">
-        <v>0</v>
+      <c r="I133" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
@@ -3838,8 +3862,8 @@
       <c r="H134" s="2">
         <v>1.7</v>
       </c>
-      <c r="I134" s="2">
-        <v>0</v>
+      <c r="I134" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
@@ -3864,8 +3888,8 @@
       <c r="H135" s="2">
         <v>3.4</v>
       </c>
-      <c r="I135" s="2">
-        <v>0</v>
+      <c r="I135" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
@@ -3890,8 +3914,8 @@
       <c r="H136" s="2">
         <v>10.5</v>
       </c>
-      <c r="I136" s="2">
-        <v>0</v>
+      <c r="I136" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -3916,8 +3940,8 @@
       <c r="H137" s="2">
         <v>11.5</v>
       </c>
-      <c r="I137" s="2">
-        <v>0</v>
+      <c r="I137" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
@@ -3942,8 +3966,8 @@
       <c r="H138" s="2">
         <v>4.5</v>
       </c>
-      <c r="I138" s="2">
-        <v>0</v>
+      <c r="I138" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
@@ -3968,8 +3992,8 @@
       <c r="H139" s="2">
         <v>13.9</v>
       </c>
-      <c r="I139" s="2">
-        <v>0</v>
+      <c r="I139" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
@@ -3994,8 +4018,8 @@
       <c r="H140" s="2">
         <v>11</v>
       </c>
-      <c r="I140" s="2">
-        <v>0</v>
+      <c r="I140" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
@@ -4020,8 +4044,8 @@
       <c r="H141" s="2">
         <v>1.2</v>
       </c>
-      <c r="I141" s="2">
-        <v>1</v>
+      <c r="I141" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
@@ -4046,8 +4070,8 @@
       <c r="H142" s="2">
         <v>11</v>
       </c>
-      <c r="I142" s="2">
-        <v>0</v>
+      <c r="I142" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
@@ -4072,8 +4096,8 @@
       <c r="H143" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I143" s="2">
-        <v>0</v>
+      <c r="I143" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
@@ -4098,8 +4122,8 @@
       <c r="H144" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="I144" s="2">
-        <v>2</v>
+      <c r="I144" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
@@ -4124,8 +4148,8 @@
       <c r="H145" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="I145" s="2">
-        <v>2</v>
+      <c r="I145" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
@@ -4150,8 +4174,8 @@
       <c r="H146" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I146" s="2">
-        <v>0</v>
+      <c r="I146" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
@@ -4176,8 +4200,8 @@
       <c r="H147" s="2">
         <v>11.8</v>
       </c>
-      <c r="I147" s="2">
-        <v>0</v>
+      <c r="I147" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
@@ -4202,8 +4226,8 @@
       <c r="H148" s="2">
         <v>12</v>
       </c>
-      <c r="I148" s="2">
-        <v>0</v>
+      <c r="I148" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -4228,8 +4252,8 @@
       <c r="H149" s="2">
         <v>25.1</v>
       </c>
-      <c r="I149" s="2">
-        <v>2</v>
+      <c r="I149" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -4254,8 +4278,8 @@
       <c r="H150" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="I150" s="2">
-        <v>0</v>
+      <c r="I150" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
@@ -4280,8 +4304,8 @@
       <c r="H151" s="2">
         <v>10.3</v>
       </c>
-      <c r="I151" s="2">
-        <v>1</v>
+      <c r="I151" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
@@ -4306,8 +4330,8 @@
       <c r="H152" s="2">
         <v>13.2</v>
       </c>
-      <c r="I152" s="2">
-        <v>2</v>
+      <c r="I152" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
@@ -4332,8 +4356,8 @@
       <c r="H153" s="2">
         <v>5.7</v>
       </c>
-      <c r="I153" s="2">
-        <v>0</v>
+      <c r="I153" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
@@ -4358,8 +4382,8 @@
       <c r="H154" s="2">
         <v>4.5</v>
       </c>
-      <c r="I154" s="2">
-        <v>0</v>
+      <c r="I154" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -4384,8 +4408,8 @@
       <c r="H155" s="2">
         <v>2.6</v>
       </c>
-      <c r="I155" s="2">
-        <v>0</v>
+      <c r="I155" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -4410,8 +4434,8 @@
       <c r="H156" s="2">
         <v>23.4</v>
       </c>
-      <c r="I156" s="2">
-        <v>1</v>
+      <c r="I156" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -4436,8 +4460,8 @@
       <c r="H157" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I157" s="2">
-        <v>2</v>
+      <c r="I157" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
@@ -4462,8 +4486,8 @@
       <c r="H158" s="2">
         <v>15.4</v>
       </c>
-      <c r="I158" s="2">
-        <v>0</v>
+      <c r="I158" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -4488,8 +4512,8 @@
       <c r="H159" s="2">
         <v>6.2</v>
       </c>
-      <c r="I159" s="2">
-        <v>0</v>
+      <c r="I159" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -4514,8 +4538,8 @@
       <c r="H160" s="2">
         <v>17.2</v>
       </c>
-      <c r="I160" s="2">
-        <v>0</v>
+      <c r="I160" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -4540,8 +4564,8 @@
       <c r="H161" s="2">
         <v>2.6</v>
       </c>
-      <c r="I161" s="2">
-        <v>1</v>
+      <c r="I161" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.25">
@@ -4566,8 +4590,8 @@
       <c r="H162" s="2">
         <v>5.6</v>
       </c>
-      <c r="I162" s="2">
-        <v>1</v>
+      <c r="I162" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
@@ -4592,8 +4616,8 @@
       <c r="H163" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="I163" s="2">
-        <v>2</v>
+      <c r="I163" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
@@ -4618,8 +4642,8 @@
       <c r="H164" s="2">
         <v>14.6</v>
       </c>
-      <c r="I164" s="2">
-        <v>2</v>
+      <c r="I164" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
@@ -4644,8 +4668,8 @@
       <c r="H165" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I165" s="2">
-        <v>0</v>
+      <c r="I165" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.25">
@@ -4670,8 +4694,8 @@
       <c r="H166" s="2">
         <v>19.2</v>
       </c>
-      <c r="I166" s="2">
-        <v>0</v>
+      <c r="I166" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.25">
@@ -4696,8 +4720,8 @@
       <c r="H167" s="2">
         <v>0.8</v>
       </c>
-      <c r="I167" s="2">
-        <v>0</v>
+      <c r="I167" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
@@ -4722,8 +4746,8 @@
       <c r="H168" s="2">
         <v>10.9</v>
       </c>
-      <c r="I168" s="2">
-        <v>0</v>
+      <c r="I168" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
@@ -4748,8 +4772,8 @@
       <c r="H169" s="2">
         <v>11.5</v>
       </c>
-      <c r="I169" s="2">
-        <v>0</v>
+      <c r="I169" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
@@ -4774,8 +4798,8 @@
       <c r="H170" s="2">
         <v>1.6</v>
       </c>
-      <c r="I170" s="2">
-        <v>0</v>
+      <c r="I170" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
@@ -4800,8 +4824,8 @@
       <c r="H171" s="2">
         <v>2.8</v>
       </c>
-      <c r="I171" s="2">
-        <v>0</v>
+      <c r="I171" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
@@ -4826,8 +4850,8 @@
       <c r="H172" s="2">
         <v>0.9</v>
       </c>
-      <c r="I172" s="2">
-        <v>0</v>
+      <c r="I172" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.25">
@@ -4852,8 +4876,8 @@
       <c r="H173" s="2">
         <v>2.7</v>
       </c>
-      <c r="I173" s="2">
-        <v>0</v>
+      <c r="I173" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
@@ -4878,8 +4902,8 @@
       <c r="H174" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I174" s="2">
-        <v>0</v>
+      <c r="I174" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
@@ -4904,8 +4928,8 @@
       <c r="H175" s="2">
         <v>14.3</v>
       </c>
-      <c r="I175" s="2">
-        <v>1</v>
+      <c r="I175" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
@@ -4930,8 +4954,8 @@
       <c r="H176" s="2">
         <v>12.3</v>
       </c>
-      <c r="I176" s="2">
-        <v>0</v>
+      <c r="I176" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
@@ -4956,8 +4980,8 @@
       <c r="H177" s="2">
         <v>2.6</v>
       </c>
-      <c r="I177" s="2">
-        <v>0</v>
+      <c r="I177" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
@@ -4982,8 +5006,8 @@
       <c r="H178" s="2">
         <v>11</v>
       </c>
-      <c r="I178" s="2">
-        <v>2</v>
+      <c r="I178" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
@@ -5008,8 +5032,8 @@
       <c r="H179" s="2">
         <v>5</v>
       </c>
-      <c r="I179" s="2">
-        <v>0</v>
+      <c r="I179" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
@@ -5034,8 +5058,8 @@
       <c r="H180" s="2">
         <v>28.9</v>
       </c>
-      <c r="I180" s="2">
-        <v>2</v>
+      <c r="I180" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.25">
@@ -5060,8 +5084,8 @@
       <c r="H181" s="2">
         <v>5.5</v>
       </c>
-      <c r="I181" s="2">
-        <v>0</v>
+      <c r="I181" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
@@ -5086,8 +5110,8 @@
       <c r="H182" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I182" s="2">
-        <v>0</v>
+      <c r="I182" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
@@ -5112,8 +5136,8 @@
       <c r="H183" s="2">
         <v>12.4</v>
       </c>
-      <c r="I183" s="2">
-        <v>2</v>
+      <c r="I183" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
@@ -5138,8 +5162,8 @@
       <c r="H184" s="2">
         <v>4.7</v>
       </c>
-      <c r="I184" s="2">
-        <v>1</v>
+      <c r="I184" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
@@ -5164,8 +5188,8 @@
       <c r="H185" s="2">
         <v>16</v>
       </c>
-      <c r="I185" s="2">
-        <v>2</v>
+      <c r="I185" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
@@ -5190,8 +5214,8 @@
       <c r="H186" s="2">
         <v>7.2</v>
       </c>
-      <c r="I186" s="2">
-        <v>0</v>
+      <c r="I186" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
@@ -5216,8 +5240,8 @@
       <c r="H187" s="2">
         <v>6.3</v>
       </c>
-      <c r="I187" s="2">
-        <v>0</v>
+      <c r="I187" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
@@ -5242,8 +5266,8 @@
       <c r="H188" s="2">
         <v>25.3</v>
       </c>
-      <c r="I188" s="2">
-        <v>1</v>
+      <c r="I188" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
@@ -5268,8 +5292,8 @@
       <c r="H189" s="2">
         <v>26.3</v>
       </c>
-      <c r="I189" s="2">
-        <v>2</v>
+      <c r="I189" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
@@ -5294,8 +5318,8 @@
       <c r="H190" s="2">
         <v>26</v>
       </c>
-      <c r="I190" s="2">
-        <v>2</v>
+      <c r="I190" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
@@ -5320,8 +5344,8 @@
       <c r="H191" s="2">
         <v>7</v>
       </c>
-      <c r="I191" s="2">
-        <v>0</v>
+      <c r="I191" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.25">
@@ -5346,8 +5370,8 @@
       <c r="H192" s="2">
         <v>8.9</v>
       </c>
-      <c r="I192" s="2">
-        <v>0</v>
+      <c r="I192" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="2:9" x14ac:dyDescent="0.25">
@@ -5372,8 +5396,8 @@
       <c r="H193" s="2">
         <v>12.9</v>
       </c>
-      <c r="I193" s="2">
-        <v>0</v>
+      <c r="I193" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194" spans="2:9" x14ac:dyDescent="0.25">
@@ -5398,8 +5422,8 @@
       <c r="H194" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I194" s="2">
-        <v>0</v>
+      <c r="I194" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="2:9" x14ac:dyDescent="0.25">
@@ -5424,8 +5448,8 @@
       <c r="H195" s="2">
         <v>20.3</v>
       </c>
-      <c r="I195" s="2">
-        <v>0</v>
+      <c r="I195" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.25">
@@ -5450,8 +5474,8 @@
       <c r="H196" s="2">
         <v>24.5</v>
       </c>
-      <c r="I196" s="2">
-        <v>1</v>
+      <c r="I196" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.25">
@@ -5476,8 +5500,8 @@
       <c r="H197" s="2">
         <v>0.1</v>
       </c>
-      <c r="I197" s="2">
-        <v>0</v>
+      <c r="I197" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.25">
@@ -5502,8 +5526,8 @@
       <c r="H198" s="2">
         <v>0.9</v>
       </c>
-      <c r="I198" s="2">
-        <v>2</v>
+      <c r="I198" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.25">
@@ -5528,8 +5552,8 @@
       <c r="H199" s="2">
         <v>3.4</v>
       </c>
-      <c r="I199" s="2">
-        <v>0</v>
+      <c r="I199" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.25">
@@ -5554,8 +5578,8 @@
       <c r="H200" s="2">
         <v>10.6</v>
       </c>
-      <c r="I200" s="2">
-        <v>0</v>
+      <c r="I200" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.25">
@@ -5580,8 +5604,8 @@
       <c r="H201" s="2">
         <v>6.8</v>
       </c>
-      <c r="I201" s="2">
-        <v>0</v>
+      <c r="I201" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.25">
@@ -5606,8 +5630,8 @@
       <c r="H202" s="2">
         <v>10</v>
       </c>
-      <c r="I202" s="2">
-        <v>1</v>
+      <c r="I202" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.25">
@@ -5632,8 +5656,8 @@
       <c r="H203" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I203" s="2">
-        <v>1</v>
+      <c r="I203" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.25">
@@ -5658,8 +5682,8 @@
       <c r="H204" s="2">
         <v>1.7</v>
       </c>
-      <c r="I204" s="2">
-        <v>0</v>
+      <c r="I204" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.25">
@@ -5684,8 +5708,8 @@
       <c r="H205" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I205" s="2">
-        <v>1</v>
+      <c r="I205" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.25">
@@ -5710,8 +5734,8 @@
       <c r="H206" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I206" s="2">
-        <v>0</v>
+      <c r="I206" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.25">
@@ -5736,8 +5760,8 @@
       <c r="H207" s="2">
         <v>13.8</v>
       </c>
-      <c r="I207" s="2">
-        <v>2</v>
+      <c r="I207" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.25">
@@ -5762,8 +5786,8 @@
       <c r="H208" s="2">
         <v>4</v>
       </c>
-      <c r="I208" s="2">
-        <v>0</v>
+      <c r="I208" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.25">
@@ -5788,8 +5812,8 @@
       <c r="H209" s="2">
         <v>2.6</v>
       </c>
-      <c r="I209" s="2">
-        <v>0</v>
+      <c r="I209" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.25">
@@ -5814,8 +5838,8 @@
       <c r="H210" s="2">
         <v>13.2</v>
       </c>
-      <c r="I210" s="2">
-        <v>2</v>
+      <c r="I210" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.25">
@@ -5840,8 +5864,8 @@
       <c r="H211" s="2">
         <v>3.1</v>
       </c>
-      <c r="I211" s="2">
-        <v>0</v>
+      <c r="I211" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.25">
@@ -5866,8 +5890,8 @@
       <c r="H212" s="2">
         <v>2.6</v>
       </c>
-      <c r="I212" s="2">
-        <v>1</v>
+      <c r="I212" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.25">
@@ -5892,8 +5916,8 @@
       <c r="H213" s="2">
         <v>3.6</v>
       </c>
-      <c r="I213" s="2">
-        <v>1</v>
+      <c r="I213" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.25">
@@ -5918,8 +5942,8 @@
       <c r="H214" s="2">
         <v>5.7</v>
       </c>
-      <c r="I214" s="2">
-        <v>2</v>
+      <c r="I214" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.25">
@@ -5944,8 +5968,8 @@
       <c r="H215" s="2">
         <v>9.1</v>
       </c>
-      <c r="I215" s="2">
-        <v>0</v>
+      <c r="I215" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.25">
@@ -5970,8 +5994,8 @@
       <c r="H216" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I216" s="2">
-        <v>0</v>
+      <c r="I216" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.25">
@@ -5996,8 +6020,8 @@
       <c r="H217" s="2">
         <v>5.5</v>
       </c>
-      <c r="I217" s="2">
-        <v>0</v>
+      <c r="I217" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
@@ -6022,8 +6046,8 @@
       <c r="H218" s="2">
         <v>1</v>
       </c>
-      <c r="I218" s="2">
-        <v>1</v>
+      <c r="I218" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -6048,8 +6072,8 @@
       <c r="H219" s="2">
         <v>10.6</v>
       </c>
-      <c r="I219" s="2">
-        <v>0</v>
+      <c r="I219" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
@@ -6074,8 +6098,8 @@
       <c r="H220" s="2">
         <v>17.8</v>
       </c>
-      <c r="I220" s="2">
-        <v>2</v>
+      <c r="I220" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
@@ -6100,8 +6124,8 @@
       <c r="H221" s="2">
         <v>13</v>
       </c>
-      <c r="I221" s="2">
-        <v>2</v>
+      <c r="I221" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
@@ -6126,8 +6150,8 @@
       <c r="H222" s="2">
         <v>23.3</v>
       </c>
-      <c r="I222" s="2">
-        <v>2</v>
+      <c r="I222" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -6152,8 +6176,8 @@
       <c r="H223" s="2">
         <v>12.1</v>
       </c>
-      <c r="I223" s="2">
-        <v>0</v>
+      <c r="I223" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
@@ -6178,8 +6202,8 @@
       <c r="H224" s="2">
         <v>2.1</v>
       </c>
-      <c r="I224" s="2">
-        <v>0</v>
+      <c r="I224" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -6204,8 +6228,8 @@
       <c r="H225" s="2">
         <v>12.5</v>
       </c>
-      <c r="I225" s="2">
-        <v>2</v>
+      <c r="I225" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -6230,8 +6254,8 @@
       <c r="H226" s="2">
         <v>6</v>
       </c>
-      <c r="I226" s="2">
-        <v>1</v>
+      <c r="I226" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -6256,8 +6280,8 @@
       <c r="H227" s="2">
         <v>5.8</v>
       </c>
-      <c r="I227" s="2">
-        <v>0</v>
+      <c r="I227" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -6282,8 +6306,8 @@
       <c r="H228" s="2">
         <v>6.7</v>
       </c>
-      <c r="I228" s="2">
-        <v>0</v>
+      <c r="I228" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -6308,8 +6332,8 @@
       <c r="H229" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I229" s="2">
-        <v>0</v>
+      <c r="I229" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -6334,8 +6358,8 @@
       <c r="H230" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I230" s="2">
-        <v>0</v>
+      <c r="I230" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -6360,8 +6384,8 @@
       <c r="H231" s="2">
         <v>14.1</v>
       </c>
-      <c r="I231" s="2">
-        <v>1</v>
+      <c r="I231" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -6386,8 +6410,8 @@
       <c r="H232" s="2">
         <v>8</v>
       </c>
-      <c r="I232" s="2">
-        <v>0</v>
+      <c r="I232" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -6412,8 +6436,8 @@
       <c r="H233" s="2">
         <v>24.6</v>
       </c>
-      <c r="I233" s="2">
-        <v>0</v>
+      <c r="I233" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -6438,8 +6462,8 @@
       <c r="H234" s="2">
         <v>12.9</v>
       </c>
-      <c r="I234" s="2">
-        <v>2</v>
+      <c r="I234" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -6464,8 +6488,8 @@
       <c r="H235" s="2">
         <v>5</v>
       </c>
-      <c r="I235" s="2">
-        <v>0</v>
+      <c r="I235" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -6490,8 +6514,8 @@
       <c r="H236" s="2">
         <v>17</v>
       </c>
-      <c r="I236" s="2">
-        <v>0</v>
+      <c r="I236" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -6516,8 +6540,8 @@
       <c r="H237" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="I237" s="2">
-        <v>0</v>
+      <c r="I237" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -6542,8 +6566,8 @@
       <c r="H238" s="2">
         <v>12.7</v>
       </c>
-      <c r="I238" s="2">
-        <v>0</v>
+      <c r="I238" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -6568,8 +6592,8 @@
       <c r="H239" s="2">
         <v>14</v>
       </c>
-      <c r="I239" s="2">
-        <v>1</v>
+      <c r="I239" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -6594,8 +6618,8 @@
       <c r="H240" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I240" s="2">
-        <v>0</v>
+      <c r="I240" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
@@ -6620,8 +6644,8 @@
       <c r="H241" s="2">
         <v>10.9</v>
       </c>
-      <c r="I241" s="2">
-        <v>1</v>
+      <c r="I241" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
@@ -6646,8 +6670,8 @@
       <c r="H242" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="I242" s="2">
-        <v>2</v>
+      <c r="I242" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
@@ -6672,8 +6696,8 @@
       <c r="H243" s="2">
         <v>23</v>
       </c>
-      <c r="I243" s="2">
-        <v>1</v>
+      <c r="I243" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.25">
@@ -6698,8 +6722,8 @@
       <c r="H244" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I244" s="2">
-        <v>0</v>
+      <c r="I244" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
@@ -6724,8 +6748,8 @@
       <c r="H245" s="2">
         <v>11.3</v>
       </c>
-      <c r="I245" s="2">
-        <v>0</v>
+      <c r="I245" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -6750,8 +6774,8 @@
       <c r="H246" s="2">
         <v>3.2</v>
       </c>
-      <c r="I246" s="2">
-        <v>0</v>
+      <c r="I246" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -6776,8 +6800,8 @@
       <c r="H247" s="2">
         <v>8.1</v>
       </c>
-      <c r="I247" s="2">
-        <v>0</v>
+      <c r="I247" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -6802,8 +6826,8 @@
       <c r="H248" s="2">
         <v>4.7</v>
       </c>
-      <c r="I248" s="2">
-        <v>0</v>
+      <c r="I248" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
@@ -6828,8 +6852,8 @@
       <c r="H249" s="2">
         <v>7.1</v>
       </c>
-      <c r="I249" s="2">
-        <v>0</v>
+      <c r="I249" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
@@ -6854,8 +6878,8 @@
       <c r="H250" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I250" s="2">
-        <v>1</v>
+      <c r="I250" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
@@ -6880,8 +6904,8 @@
       <c r="H251" s="2">
         <v>6.4</v>
       </c>
-      <c r="I251" s="2">
-        <v>0</v>
+      <c r="I251" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
@@ -6906,8 +6930,8 @@
       <c r="H252" s="2">
         <v>12.1</v>
       </c>
-      <c r="I252" s="2">
-        <v>1</v>
+      <c r="I252" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
@@ -6932,8 +6956,8 @@
       <c r="H253" s="2">
         <v>8.5</v>
       </c>
-      <c r="I253" s="2">
-        <v>0</v>
+      <c r="I253" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
@@ -6958,8 +6982,8 @@
       <c r="H254" s="2">
         <v>12.4</v>
       </c>
-      <c r="I254" s="2">
-        <v>0</v>
+      <c r="I254" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.25">
@@ -6984,8 +7008,8 @@
       <c r="H255" s="2">
         <v>7.2</v>
       </c>
-      <c r="I255" s="2">
-        <v>0</v>
+      <c r="I255" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
@@ -7010,8 +7034,8 @@
       <c r="H256" s="2">
         <v>14.2</v>
       </c>
-      <c r="I256" s="2">
-        <v>0</v>
+      <c r="I256" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -7036,8 +7060,8 @@
       <c r="H257" s="2">
         <v>4.8</v>
       </c>
-      <c r="I257" s="2">
-        <v>0</v>
+      <c r="I257" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -7062,8 +7086,8 @@
       <c r="H258" s="2">
         <v>23.1</v>
       </c>
-      <c r="I258" s="2">
-        <v>0</v>
+      <c r="I258" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -7088,8 +7112,8 @@
       <c r="H259" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I259" s="2">
-        <v>1</v>
+      <c r="I259" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -7114,8 +7138,8 @@
       <c r="H260" s="2">
         <v>25.1</v>
       </c>
-      <c r="I260" s="2">
-        <v>2</v>
+      <c r="I260" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -7140,8 +7164,8 @@
       <c r="H261" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I261" s="2">
-        <v>0</v>
+      <c r="I261" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -7166,8 +7190,8 @@
       <c r="H262" s="2">
         <v>8.4</v>
       </c>
-      <c r="I262" s="2">
-        <v>2</v>
+      <c r="I262" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
@@ -7192,8 +7216,8 @@
       <c r="H263" s="2">
         <v>3.1</v>
       </c>
-      <c r="I263" s="2">
-        <v>0</v>
+      <c r="I263" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -7218,8 +7242,8 @@
       <c r="H264" s="2">
         <v>8.9</v>
       </c>
-      <c r="I264" s="2">
-        <v>0</v>
+      <c r="I264" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -7244,8 +7268,8 @@
       <c r="H265" s="2">
         <v>6.9</v>
       </c>
-      <c r="I265" s="2">
-        <v>0</v>
+      <c r="I265" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -7270,8 +7294,8 @@
       <c r="H266" s="2">
         <v>13</v>
       </c>
-      <c r="I266" s="2">
-        <v>0</v>
+      <c r="I266" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -7296,8 +7320,8 @@
       <c r="H267" s="2">
         <v>14.4</v>
       </c>
-      <c r="I267" s="2">
-        <v>0</v>
+      <c r="I267" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
@@ -7322,8 +7346,8 @@
       <c r="H268" s="2">
         <v>2.4</v>
       </c>
-      <c r="I268" s="2">
-        <v>2</v>
+      <c r="I268" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
@@ -7348,8 +7372,8 @@
       <c r="H269" s="2">
         <v>16.7</v>
       </c>
-      <c r="I269" s="2">
-        <v>1</v>
+      <c r="I269" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
@@ -7374,8 +7398,8 @@
       <c r="H270" s="2">
         <v>8</v>
       </c>
-      <c r="I270" s="2">
-        <v>2</v>
+      <c r="I270" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
@@ -7400,8 +7424,8 @@
       <c r="H271" s="2">
         <v>7</v>
       </c>
-      <c r="I271" s="2">
-        <v>0</v>
+      <c r="I271" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -7426,8 +7450,8 @@
       <c r="H272" s="2">
         <v>13.4</v>
       </c>
-      <c r="I272" s="2">
-        <v>1</v>
+      <c r="I272" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.25">
@@ -7452,8 +7476,8 @@
       <c r="H273" s="2">
         <v>7.1</v>
       </c>
-      <c r="I273" s="2">
-        <v>0</v>
+      <c r="I273" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.25">
@@ -7478,8 +7502,8 @@
       <c r="H274" s="2">
         <v>3.6</v>
       </c>
-      <c r="I274" s="2">
-        <v>0</v>
+      <c r="I274" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.25">
@@ -7504,8 +7528,8 @@
       <c r="H275" s="2">
         <v>12.5</v>
       </c>
-      <c r="I275" s="2">
-        <v>2</v>
+      <c r="I275" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.25">
@@ -7530,8 +7554,8 @@
       <c r="H276" s="2">
         <v>5</v>
       </c>
-      <c r="I276" s="2">
-        <v>0</v>
+      <c r="I276" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.25">
@@ -7556,8 +7580,8 @@
       <c r="H277" s="2">
         <v>2.9</v>
       </c>
-      <c r="I277" s="2">
-        <v>0</v>
+      <c r="I277" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.25">
@@ -7582,8 +7606,8 @@
       <c r="H278" s="2">
         <v>7.6</v>
       </c>
-      <c r="I278" s="2">
-        <v>0</v>
+      <c r="I278" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.25">
@@ -7608,8 +7632,8 @@
       <c r="H279" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I279" s="2">
-        <v>0</v>
+      <c r="I279" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.25">
@@ -7634,8 +7658,8 @@
       <c r="H280" s="2">
         <v>2.5</v>
       </c>
-      <c r="I280" s="2">
-        <v>2</v>
+      <c r="I280" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="2:9" x14ac:dyDescent="0.25">
@@ -7660,8 +7684,8 @@
       <c r="H281" s="2">
         <v>17.3</v>
       </c>
-      <c r="I281" s="2">
-        <v>2</v>
+      <c r="I281" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="2:9" x14ac:dyDescent="0.25">
@@ -7686,8 +7710,8 @@
       <c r="H282" s="2">
         <v>16.5</v>
       </c>
-      <c r="I282" s="2">
-        <v>2</v>
+      <c r="I282" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="2:9" x14ac:dyDescent="0.25">
@@ -7712,8 +7736,8 @@
       <c r="H283" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I283" s="2">
-        <v>0</v>
+      <c r="I283" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="2:9" x14ac:dyDescent="0.25">
@@ -7738,8 +7762,8 @@
       <c r="H284" s="2">
         <v>9.5</v>
       </c>
-      <c r="I284" s="2">
-        <v>0</v>
+      <c r="I284" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="2:9" x14ac:dyDescent="0.25">
@@ -7764,8 +7788,8 @@
       <c r="H285" s="2">
         <v>1.2</v>
       </c>
-      <c r="I285" s="2">
-        <v>0</v>
+      <c r="I285" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="2:9" x14ac:dyDescent="0.25">
@@ -7790,8 +7814,8 @@
       <c r="H286" s="2">
         <v>32.5</v>
       </c>
-      <c r="I286" s="2">
-        <v>1</v>
+      <c r="I286" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="2:9" x14ac:dyDescent="0.25">
@@ -7816,8 +7840,8 @@
       <c r="H287" s="2">
         <v>2.9</v>
       </c>
-      <c r="I287" s="2">
-        <v>1</v>
+      <c r="I287" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.25">
@@ -7842,8 +7866,8 @@
       <c r="H288" s="2">
         <v>10.5</v>
       </c>
-      <c r="I288" s="2">
-        <v>0</v>
+      <c r="I288" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.25">
@@ -7868,8 +7892,8 @@
       <c r="H289" s="2">
         <v>9.1</v>
       </c>
-      <c r="I289" s="2">
-        <v>1</v>
+      <c r="I289" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.25">
@@ -7894,8 +7918,8 @@
       <c r="H290" s="2">
         <v>7.8</v>
       </c>
-      <c r="I290" s="2">
-        <v>0</v>
+      <c r="I290" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.25">
@@ -7920,8 +7944,8 @@
       <c r="H291" s="2">
         <v>10.6</v>
       </c>
-      <c r="I291" s="2">
-        <v>1</v>
+      <c r="I291" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.25">
@@ -7946,8 +7970,8 @@
       <c r="H292" s="2">
         <v>6.6</v>
       </c>
-      <c r="I292" s="2">
-        <v>0</v>
+      <c r="I292" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.25">
@@ -7972,8 +7996,8 @@
       <c r="H293" s="2">
         <v>1.4</v>
       </c>
-      <c r="I293" s="2">
-        <v>1</v>
+      <c r="I293" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.25">
@@ -7998,8 +8022,8 @@
       <c r="H294" s="2">
         <v>16.5</v>
       </c>
-      <c r="I294" s="2">
-        <v>1</v>
+      <c r="I294" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.25">
@@ -8024,8 +8048,8 @@
       <c r="H295" s="2">
         <v>4.2</v>
       </c>
-      <c r="I295" s="2">
-        <v>0</v>
+      <c r="I295" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.25">
@@ -8050,8 +8074,8 @@
       <c r="H296" s="2">
         <v>5</v>
       </c>
-      <c r="I296" s="2">
-        <v>0</v>
+      <c r="I296" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.25">
@@ -8076,8 +8100,8 @@
       <c r="H297" s="2">
         <v>0.9</v>
       </c>
-      <c r="I297" s="2">
-        <v>0</v>
+      <c r="I297" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.25">
@@ -8102,8 +8126,8 @@
       <c r="H298" s="2">
         <v>24.7</v>
       </c>
-      <c r="I298" s="2">
-        <v>2</v>
+      <c r="I298" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.25">
@@ -8128,8 +8152,8 @@
       <c r="H299" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I299" s="2">
-        <v>0</v>
+      <c r="I299" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.25">
@@ -8154,8 +8178,8 @@
       <c r="H300" s="2">
         <v>10.5</v>
       </c>
-      <c r="I300" s="2">
-        <v>0</v>
+      <c r="I300" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.25">
@@ -8180,8 +8204,8 @@
       <c r="H301" s="2">
         <v>10.3</v>
       </c>
-      <c r="I301" s="2">
-        <v>2</v>
+      <c r="I301" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.25">
@@ -8206,8 +8230,8 @@
       <c r="H302" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I302" s="2">
-        <v>0</v>
+      <c r="I302" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.25">
@@ -8232,8 +8256,8 @@
       <c r="H303" s="2">
         <v>8.5</v>
       </c>
-      <c r="I303" s="2">
-        <v>2</v>
+      <c r="I303" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.25">
@@ -8258,8 +8282,8 @@
       <c r="H304" s="2">
         <v>13.7</v>
       </c>
-      <c r="I304" s="2">
-        <v>1</v>
+      <c r="I304" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="2:9" x14ac:dyDescent="0.25">
@@ -8284,8 +8308,8 @@
       <c r="H305" s="2">
         <v>6.8</v>
       </c>
-      <c r="I305" s="2">
-        <v>0</v>
+      <c r="I305" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="2:9" x14ac:dyDescent="0.25">
@@ -8310,8 +8334,8 @@
       <c r="H306" s="2">
         <v>5.8</v>
       </c>
-      <c r="I306" s="2">
-        <v>0</v>
+      <c r="I306" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="2:9" x14ac:dyDescent="0.25">
@@ -8336,8 +8360,8 @@
       <c r="H307" s="2">
         <v>7.9</v>
       </c>
-      <c r="I307" s="2">
-        <v>0</v>
+      <c r="I307" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="308" spans="2:9" x14ac:dyDescent="0.25">
@@ -8362,8 +8386,8 @@
       <c r="H308" s="2">
         <v>9.6</v>
       </c>
-      <c r="I308" s="2">
-        <v>0</v>
+      <c r="I308" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="2:9" x14ac:dyDescent="0.25">
@@ -8388,8 +8412,8 @@
       <c r="H309" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="I309" s="2">
-        <v>2</v>
+      <c r="I309" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="2:9" x14ac:dyDescent="0.25">
@@ -8414,8 +8438,8 @@
       <c r="H310" s="2">
         <v>8.5</v>
       </c>
-      <c r="I310" s="2">
-        <v>0</v>
+      <c r="I310" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="2:9" x14ac:dyDescent="0.25">
@@ -8440,8 +8464,8 @@
       <c r="H311" s="2">
         <v>18.8</v>
       </c>
-      <c r="I311" s="2">
-        <v>0</v>
+      <c r="I311" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="2:9" x14ac:dyDescent="0.25">
@@ -8466,8 +8490,8 @@
       <c r="H312" s="2">
         <v>32.299999999999997</v>
       </c>
-      <c r="I312" s="2">
-        <v>2</v>
+      <c r="I312" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="2:9" x14ac:dyDescent="0.25">
@@ -8492,8 +8516,8 @@
       <c r="H313" s="2">
         <v>17.2</v>
       </c>
-      <c r="I313" s="2">
-        <v>2</v>
+      <c r="I313" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="2:9" x14ac:dyDescent="0.25">
@@ -8518,8 +8542,8 @@
       <c r="H314" s="2">
         <v>8.9</v>
       </c>
-      <c r="I314" s="2">
-        <v>0</v>
+      <c r="I314" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="315" spans="2:9" x14ac:dyDescent="0.25">
@@ -8544,8 +8568,8 @@
       <c r="H315" s="2">
         <v>6.4</v>
       </c>
-      <c r="I315" s="2">
-        <v>0</v>
+      <c r="I315" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="2:9" x14ac:dyDescent="0.25">
@@ -8570,8 +8594,8 @@
       <c r="H316" s="2">
         <v>11</v>
       </c>
-      <c r="I316" s="2">
-        <v>0</v>
+      <c r="I316" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="317" spans="2:9" x14ac:dyDescent="0.25">
@@ -8596,8 +8620,8 @@
       <c r="H317" s="2">
         <v>9.6</v>
       </c>
-      <c r="I317" s="2">
-        <v>0</v>
+      <c r="I317" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="2:9" x14ac:dyDescent="0.25">
@@ -8622,8 +8646,8 @@
       <c r="H318" s="2">
         <v>2.6</v>
       </c>
-      <c r="I318" s="2">
-        <v>0</v>
+      <c r="I318" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="2:9" x14ac:dyDescent="0.25">
@@ -8648,8 +8672,8 @@
       <c r="H319" s="2">
         <v>3.7</v>
       </c>
-      <c r="I319" s="2">
-        <v>0</v>
+      <c r="I319" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="2:9" x14ac:dyDescent="0.25">
@@ -8674,8 +8698,8 @@
       <c r="H320" s="2">
         <v>5</v>
       </c>
-      <c r="I320" s="2">
-        <v>0</v>
+      <c r="I320" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="2:9" x14ac:dyDescent="0.25">
@@ -8700,8 +8724,8 @@
       <c r="H321" s="2">
         <v>7</v>
       </c>
-      <c r="I321" s="2">
-        <v>0</v>
+      <c r="I321" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="2:9" x14ac:dyDescent="0.25">
@@ -8726,8 +8750,8 @@
       <c r="H322" s="2">
         <v>12.8</v>
       </c>
-      <c r="I322" s="2">
-        <v>2</v>
+      <c r="I322" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="2:9" x14ac:dyDescent="0.25">
@@ -8752,8 +8776,8 @@
       <c r="H323" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I323" s="2">
-        <v>0</v>
+      <c r="I323" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="2:9" x14ac:dyDescent="0.25">
@@ -8778,8 +8802,8 @@
       <c r="H324" s="2">
         <v>8.1</v>
       </c>
-      <c r="I324" s="2">
-        <v>2</v>
+      <c r="I324" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="2:9" x14ac:dyDescent="0.25">
@@ -8804,8 +8828,8 @@
       <c r="H325" s="2">
         <v>25.2</v>
       </c>
-      <c r="I325" s="2">
-        <v>1</v>
+      <c r="I325" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="2:9" x14ac:dyDescent="0.25">
@@ -8830,8 +8854,8 @@
       <c r="H326" s="2">
         <v>6.7</v>
       </c>
-      <c r="I326" s="2">
-        <v>0</v>
+      <c r="I326" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="2:9" x14ac:dyDescent="0.25">
@@ -8856,8 +8880,8 @@
       <c r="H327" s="2">
         <v>10.5</v>
       </c>
-      <c r="I327" s="2">
-        <v>2</v>
+      <c r="I327" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="2:9" x14ac:dyDescent="0.25">
@@ -8882,8 +8906,8 @@
       <c r="H328" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I328" s="2">
-        <v>0</v>
+      <c r="I328" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="2:9" x14ac:dyDescent="0.25">
@@ -8908,8 +8932,8 @@
       <c r="H329" s="2">
         <v>1.2</v>
       </c>
-      <c r="I329" s="2">
-        <v>0</v>
+      <c r="I329" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="2:9" x14ac:dyDescent="0.25">
@@ -8934,8 +8958,8 @@
       <c r="H330" s="2">
         <v>6.1</v>
       </c>
-      <c r="I330" s="2">
-        <v>0</v>
+      <c r="I330" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="2:9" x14ac:dyDescent="0.25">
@@ -8960,8 +8984,8 @@
       <c r="H331" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="I331" s="2">
-        <v>2</v>
+      <c r="I331" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="2:9" x14ac:dyDescent="0.25">
@@ -8986,8 +9010,8 @@
       <c r="H332" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I332" s="2">
-        <v>2</v>
+      <c r="I332" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="2:9" x14ac:dyDescent="0.25">
@@ -9012,8 +9036,8 @@
       <c r="H333" s="2">
         <v>1.9</v>
       </c>
-      <c r="I333" s="2">
-        <v>0</v>
+      <c r="I333" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="2:9" x14ac:dyDescent="0.25">
@@ -9038,8 +9062,8 @@
       <c r="H334" s="2">
         <v>13.1</v>
       </c>
-      <c r="I334" s="2">
-        <v>1</v>
+      <c r="I334" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="2:9" x14ac:dyDescent="0.25">
@@ -9064,8 +9088,8 @@
       <c r="H335" s="2">
         <v>8</v>
       </c>
-      <c r="I335" s="2">
-        <v>0</v>
+      <c r="I335" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="2:9" x14ac:dyDescent="0.25">
@@ -9090,8 +9114,8 @@
       <c r="H336" s="2">
         <v>13.2</v>
       </c>
-      <c r="I336" s="2">
-        <v>1</v>
+      <c r="I336" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="2:9" x14ac:dyDescent="0.25">
@@ -9116,8 +9140,8 @@
       <c r="H337" s="2">
         <v>11.4</v>
       </c>
-      <c r="I337" s="2">
-        <v>2</v>
+      <c r="I337" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.25">
@@ -9142,8 +9166,8 @@
       <c r="H338" s="2">
         <v>12.2</v>
       </c>
-      <c r="I338" s="2">
-        <v>0</v>
+      <c r="I338" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.25">
@@ -9168,8 +9192,8 @@
       <c r="H339" s="2">
         <v>5</v>
       </c>
-      <c r="I339" s="2">
-        <v>0</v>
+      <c r="I339" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="2:9" x14ac:dyDescent="0.25">
@@ -9194,8 +9218,8 @@
       <c r="H340" s="2">
         <v>19.2</v>
       </c>
-      <c r="I340" s="2">
-        <v>2</v>
+      <c r="I340" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="2:9" x14ac:dyDescent="0.25">
@@ -9220,8 +9244,8 @@
       <c r="H341" s="2">
         <v>1.6</v>
       </c>
-      <c r="I341" s="2">
-        <v>0</v>
+      <c r="I341" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="2:9" x14ac:dyDescent="0.25">
@@ -9246,8 +9270,8 @@
       <c r="H342" s="2">
         <v>12</v>
       </c>
-      <c r="I342" s="2">
-        <v>1</v>
+      <c r="I342" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="2:9" x14ac:dyDescent="0.25">
@@ -9272,8 +9296,8 @@
       <c r="H343" s="2">
         <v>21.3</v>
       </c>
-      <c r="I343" s="2">
-        <v>0</v>
+      <c r="I343" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="2:9" x14ac:dyDescent="0.25">
@@ -9298,8 +9322,8 @@
       <c r="H344" s="2">
         <v>5.6</v>
       </c>
-      <c r="I344" s="2">
-        <v>1</v>
+      <c r="I344" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="2:9" x14ac:dyDescent="0.25">
@@ -9324,8 +9348,8 @@
       <c r="H345" s="2">
         <v>12.9</v>
       </c>
-      <c r="I345" s="2">
-        <v>0</v>
+      <c r="I345" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="2:9" x14ac:dyDescent="0.25">
@@ -9350,8 +9374,8 @@
       <c r="H346" s="2">
         <v>1.9</v>
       </c>
-      <c r="I346" s="2">
-        <v>0</v>
+      <c r="I346" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="2:9" x14ac:dyDescent="0.25">
@@ -9376,8 +9400,8 @@
       <c r="H347" s="2">
         <v>2.7</v>
       </c>
-      <c r="I347" s="2">
-        <v>0</v>
+      <c r="I347" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="2:9" x14ac:dyDescent="0.25">
@@ -9402,8 +9426,8 @@
       <c r="H348" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="I348" s="2">
-        <v>2</v>
+      <c r="I348" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="2:9" x14ac:dyDescent="0.25">
@@ -9428,8 +9452,8 @@
       <c r="H349" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="I349" s="2">
-        <v>1</v>
+      <c r="I349" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="2:9" x14ac:dyDescent="0.25">
@@ -9454,8 +9478,8 @@
       <c r="H350" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I350" s="2">
-        <v>0</v>
+      <c r="I350" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="2:9" x14ac:dyDescent="0.25">
@@ -9480,8 +9504,8 @@
       <c r="H351" s="2">
         <v>14.7</v>
       </c>
-      <c r="I351" s="2">
-        <v>0</v>
+      <c r="I351" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="2:9" x14ac:dyDescent="0.25">
@@ -9506,8 +9530,8 @@
       <c r="H352" s="2">
         <v>6.3</v>
       </c>
-      <c r="I352" s="2">
-        <v>0</v>
+      <c r="I352" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="2:9" x14ac:dyDescent="0.25">
@@ -9532,8 +9556,8 @@
       <c r="H353" s="2">
         <v>0.6</v>
       </c>
-      <c r="I353" s="2">
-        <v>0</v>
+      <c r="I353" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="2:9" x14ac:dyDescent="0.25">
@@ -9558,8 +9582,8 @@
       <c r="H354" s="2">
         <v>7.3</v>
       </c>
-      <c r="I354" s="2">
-        <v>0</v>
+      <c r="I354" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="355" spans="2:9" x14ac:dyDescent="0.25">
@@ -9584,8 +9608,8 @@
       <c r="H355" s="2">
         <v>23.1</v>
       </c>
-      <c r="I355" s="2">
-        <v>1</v>
+      <c r="I355" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="2:9" x14ac:dyDescent="0.25">
@@ -9610,8 +9634,8 @@
       <c r="H356" s="2">
         <v>2.9</v>
       </c>
-      <c r="I356" s="2">
-        <v>0</v>
+      <c r="I356" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="2:9" x14ac:dyDescent="0.25">
@@ -9636,8 +9660,8 @@
       <c r="H357" s="2">
         <v>3</v>
       </c>
-      <c r="I357" s="2">
-        <v>0</v>
+      <c r="I357" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="2:9" x14ac:dyDescent="0.25">
@@ -9662,8 +9686,8 @@
       <c r="H358" s="2">
         <v>4.2</v>
       </c>
-      <c r="I358" s="2">
-        <v>0</v>
+      <c r="I358" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="2:9" x14ac:dyDescent="0.25">
@@ -9688,8 +9712,8 @@
       <c r="H359" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I359" s="2">
-        <v>0</v>
+      <c r="I359" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="2:9" x14ac:dyDescent="0.25">
@@ -9714,8 +9738,8 @@
       <c r="H360" s="2">
         <v>5.2</v>
       </c>
-      <c r="I360" s="2">
-        <v>0</v>
+      <c r="I360" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="361" spans="2:9" x14ac:dyDescent="0.25">
@@ -9740,8 +9764,8 @@
       <c r="H361" s="2">
         <v>18.899999999999999</v>
       </c>
-      <c r="I361" s="2">
-        <v>1</v>
+      <c r="I361" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="2:9" x14ac:dyDescent="0.25">
@@ -9766,8 +9790,8 @@
       <c r="H362" s="2">
         <v>11.5</v>
       </c>
-      <c r="I362" s="2">
-        <v>0</v>
+      <c r="I362" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="2:9" x14ac:dyDescent="0.25">
@@ -9792,8 +9816,8 @@
       <c r="H363" s="2">
         <v>6.7</v>
       </c>
-      <c r="I363" s="2">
-        <v>0</v>
+      <c r="I363" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="364" spans="2:9" x14ac:dyDescent="0.25">
@@ -9818,8 +9842,8 @@
       <c r="H364" s="2">
         <v>17.3</v>
       </c>
-      <c r="I364" s="2">
-        <v>0</v>
+      <c r="I364" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="2:9" x14ac:dyDescent="0.25">
@@ -9844,8 +9868,8 @@
       <c r="H365" s="2">
         <v>3.6</v>
       </c>
-      <c r="I365" s="2">
-        <v>1</v>
+      <c r="I365" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="2:9" x14ac:dyDescent="0.25">
@@ -9870,8 +9894,8 @@
       <c r="H366" s="2">
         <v>21.7</v>
       </c>
-      <c r="I366" s="2">
-        <v>2</v>
+      <c r="I366" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="2:9" x14ac:dyDescent="0.25">
@@ -9896,8 +9920,8 @@
       <c r="H367" s="2">
         <v>5.2</v>
       </c>
-      <c r="I367" s="2">
-        <v>0</v>
+      <c r="I367" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="368" spans="2:9" x14ac:dyDescent="0.25">
@@ -9922,8 +9946,8 @@
       <c r="H368" s="2">
         <v>6.6</v>
       </c>
-      <c r="I368" s="2">
-        <v>2</v>
+      <c r="I368" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="2:9" x14ac:dyDescent="0.25">
@@ -9948,8 +9972,8 @@
       <c r="H369" s="2">
         <v>5.4</v>
       </c>
-      <c r="I369" s="2">
-        <v>0</v>
+      <c r="I369" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="2:9" x14ac:dyDescent="0.25">
@@ -9974,8 +9998,8 @@
       <c r="H370" s="2">
         <v>15.2</v>
       </c>
-      <c r="I370" s="2">
-        <v>0</v>
+      <c r="I370" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="2:9" x14ac:dyDescent="0.25">
@@ -10000,8 +10024,8 @@
       <c r="H371" s="2">
         <v>5.4</v>
       </c>
-      <c r="I371" s="2">
-        <v>0</v>
+      <c r="I371" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="2:9" x14ac:dyDescent="0.25">
@@ -10026,8 +10050,8 @@
       <c r="H372" s="2">
         <v>3.1</v>
       </c>
-      <c r="I372" s="2">
-        <v>1</v>
+      <c r="I372" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="2:9" x14ac:dyDescent="0.25">
@@ -10052,8 +10076,8 @@
       <c r="H373" s="2">
         <v>7.6</v>
       </c>
-      <c r="I373" s="2">
-        <v>1</v>
+      <c r="I373" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="2:9" x14ac:dyDescent="0.25">
@@ -10078,8 +10102,8 @@
       <c r="H374" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I374" s="2">
-        <v>0</v>
+      <c r="I374" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="2:9" x14ac:dyDescent="0.25">
@@ -10104,8 +10128,8 @@
       <c r="H375" s="2">
         <v>6.7</v>
       </c>
-      <c r="I375" s="2">
-        <v>2</v>
+      <c r="I375" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="2:9" x14ac:dyDescent="0.25">
@@ -10130,8 +10154,8 @@
       <c r="H376" s="2">
         <v>13.2</v>
       </c>
-      <c r="I376" s="2">
-        <v>0</v>
+      <c r="I376" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="2:9" x14ac:dyDescent="0.25">
@@ -10156,8 +10180,8 @@
       <c r="H377" s="2">
         <v>7.6</v>
       </c>
-      <c r="I377" s="2">
-        <v>1</v>
+      <c r="I377" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="2:9" x14ac:dyDescent="0.25">
@@ -10182,8 +10206,8 @@
       <c r="H378" s="2">
         <v>6.4</v>
       </c>
-      <c r="I378" s="2">
-        <v>2</v>
+      <c r="I378" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="379" spans="2:9" x14ac:dyDescent="0.25">
@@ -10208,8 +10232,8 @@
       <c r="H379" s="2">
         <v>28.5</v>
       </c>
-      <c r="I379" s="2">
-        <v>2</v>
+      <c r="I379" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="2:9" x14ac:dyDescent="0.25">
@@ -10234,8 +10258,8 @@
       <c r="H380" s="2">
         <v>19.7</v>
       </c>
-      <c r="I380" s="2">
-        <v>0</v>
+      <c r="I380" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="2:9" x14ac:dyDescent="0.25">
@@ -10260,8 +10284,8 @@
       <c r="H381" s="2">
         <v>21.7</v>
       </c>
-      <c r="I381" s="2">
-        <v>0</v>
+      <c r="I381" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="2:9" x14ac:dyDescent="0.25">
@@ -10286,8 +10310,8 @@
       <c r="H382" s="2">
         <v>7.4</v>
       </c>
-      <c r="I382" s="2">
-        <v>0</v>
+      <c r="I382" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="383" spans="2:9" x14ac:dyDescent="0.25">
@@ -10312,8 +10336,8 @@
       <c r="H383" s="2">
         <v>5.8</v>
       </c>
-      <c r="I383" s="2">
-        <v>2</v>
+      <c r="I383" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="2:9" x14ac:dyDescent="0.25">
@@ -10338,8 +10362,8 @@
       <c r="H384" s="2">
         <v>9.9</v>
       </c>
-      <c r="I384" s="2">
-        <v>0</v>
+      <c r="I384" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="2:9" x14ac:dyDescent="0.25">
@@ -10364,8 +10388,8 @@
       <c r="H385" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I385" s="2">
-        <v>0</v>
+      <c r="I385" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="2:9" x14ac:dyDescent="0.25">
@@ -10390,8 +10414,8 @@
       <c r="H386" s="2">
         <v>3.5</v>
       </c>
-      <c r="I386" s="2">
-        <v>0</v>
+      <c r="I386" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="2:9" x14ac:dyDescent="0.25">
@@ -10416,8 +10440,8 @@
       <c r="H387" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I387" s="2">
-        <v>0</v>
+      <c r="I387" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="2:9" x14ac:dyDescent="0.25">
@@ -10442,8 +10466,8 @@
       <c r="H388" s="2">
         <v>12.5</v>
       </c>
-      <c r="I388" s="2">
-        <v>0</v>
+      <c r="I388" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="2:9" x14ac:dyDescent="0.25">
@@ -10468,8 +10492,8 @@
       <c r="H389" s="2">
         <v>11.1</v>
       </c>
-      <c r="I389" s="2">
-        <v>1</v>
+      <c r="I389" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="2:9" x14ac:dyDescent="0.25">
@@ -10494,8 +10518,8 @@
       <c r="H390" s="2">
         <v>7.6</v>
       </c>
-      <c r="I390" s="2">
-        <v>0</v>
+      <c r="I390" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="2:9" x14ac:dyDescent="0.25">
@@ -10520,8 +10544,8 @@
       <c r="H391" s="2">
         <v>7.5</v>
       </c>
-      <c r="I391" s="2">
-        <v>1</v>
+      <c r="I391" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="2:9" x14ac:dyDescent="0.25">
@@ -10546,8 +10570,8 @@
       <c r="H392" s="2">
         <v>18.3</v>
       </c>
-      <c r="I392" s="2">
-        <v>0</v>
+      <c r="I392" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="393" spans="2:9" x14ac:dyDescent="0.25">
@@ -10572,8 +10596,8 @@
       <c r="H393" s="2">
         <v>4.7</v>
       </c>
-      <c r="I393" s="2">
-        <v>0</v>
+      <c r="I393" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="2:9" x14ac:dyDescent="0.25">
@@ -10598,8 +10622,8 @@
       <c r="H394" s="2">
         <v>3.7</v>
       </c>
-      <c r="I394" s="2">
-        <v>0</v>
+      <c r="I394" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="2:9" x14ac:dyDescent="0.25">
@@ -10624,8 +10648,8 @@
       <c r="H395" s="2">
         <v>13.6</v>
       </c>
-      <c r="I395" s="2">
-        <v>0</v>
+      <c r="I395" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="2:9" x14ac:dyDescent="0.25">
@@ -10650,8 +10674,8 @@
       <c r="H396" s="2">
         <v>23.8</v>
       </c>
-      <c r="I396" s="2">
-        <v>2</v>
+      <c r="I396" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="397" spans="2:9" x14ac:dyDescent="0.25">
@@ -10676,8 +10700,8 @@
       <c r="H397" s="2">
         <v>1.8</v>
       </c>
-      <c r="I397" s="2">
-        <v>0</v>
+      <c r="I397" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="2:9" x14ac:dyDescent="0.25">
@@ -10702,8 +10726,8 @@
       <c r="H398" s="2">
         <v>30.7</v>
       </c>
-      <c r="I398" s="2">
-        <v>2</v>
+      <c r="I398" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="399" spans="2:9" x14ac:dyDescent="0.25">
@@ -10728,8 +10752,8 @@
       <c r="H399" s="2">
         <v>10.9</v>
       </c>
-      <c r="I399" s="2">
-        <v>0</v>
+      <c r="I399" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="2:9" x14ac:dyDescent="0.25">
@@ -10754,8 +10778,8 @@
       <c r="H400" s="2">
         <v>9.6</v>
       </c>
-      <c r="I400" s="2">
-        <v>0</v>
+      <c r="I400" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="401" spans="2:9" x14ac:dyDescent="0.25">
@@ -10780,8 +10804,8 @@
       <c r="H401" s="2">
         <v>8</v>
       </c>
-      <c r="I401" s="2">
-        <v>0</v>
+      <c r="I401" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="2:9" x14ac:dyDescent="0.25">
@@ -10806,8 +10830,8 @@
       <c r="H402" s="2">
         <v>3</v>
       </c>
-      <c r="I402" s="2">
-        <v>1</v>
+      <c r="I402" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="2:9" x14ac:dyDescent="0.25">
@@ -10832,8 +10856,8 @@
       <c r="H403" s="2">
         <v>6.5</v>
       </c>
-      <c r="I403" s="2">
-        <v>0</v>
+      <c r="I403" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="2:9" x14ac:dyDescent="0.25">
@@ -10858,8 +10882,8 @@
       <c r="H404" s="2">
         <v>5.6</v>
       </c>
-      <c r="I404" s="2">
-        <v>0</v>
+      <c r="I404" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="2:9" x14ac:dyDescent="0.25">
@@ -10884,8 +10908,8 @@
       <c r="H405" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="I405" s="2">
-        <v>0</v>
+      <c r="I405" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="2:9" x14ac:dyDescent="0.25">
@@ -10910,8 +10934,8 @@
       <c r="H406" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I406" s="2">
-        <v>0</v>
+      <c r="I406" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="2:9" x14ac:dyDescent="0.25">
@@ -10936,8 +10960,8 @@
       <c r="H407" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="I407" s="2">
-        <v>2</v>
+      <c r="I407" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="2:9" x14ac:dyDescent="0.25">
@@ -10962,8 +10986,8 @@
       <c r="H408" s="2">
         <v>12.8</v>
       </c>
-      <c r="I408" s="2">
-        <v>0</v>
+      <c r="I408" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="409" spans="2:9" x14ac:dyDescent="0.25">
@@ -10988,8 +11012,8 @@
       <c r="H409" s="2">
         <v>14.1</v>
       </c>
-      <c r="I409" s="2">
-        <v>0</v>
+      <c r="I409" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="410" spans="2:9" x14ac:dyDescent="0.25">
@@ -11014,8 +11038,8 @@
       <c r="H410" s="2">
         <v>20.100000000000001</v>
       </c>
-      <c r="I410" s="2">
-        <v>2</v>
+      <c r="I410" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="411" spans="2:9" x14ac:dyDescent="0.25">
@@ -11040,8 +11064,8 @@
       <c r="H411" s="2">
         <v>7.1</v>
       </c>
-      <c r="I411" s="2">
-        <v>2</v>
+      <c r="I411" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="2:9" x14ac:dyDescent="0.25">
@@ -11066,8 +11090,8 @@
       <c r="H412" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="I412" s="2">
-        <v>1</v>
+      <c r="I412" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="2:9" x14ac:dyDescent="0.25">
@@ -11092,8 +11116,8 @@
       <c r="H413" s="2">
         <v>6</v>
       </c>
-      <c r="I413" s="2">
-        <v>0</v>
+      <c r="I413" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="2:9" x14ac:dyDescent="0.25">
@@ -11118,8 +11142,8 @@
       <c r="H414" s="2">
         <v>6.1</v>
       </c>
-      <c r="I414" s="2">
-        <v>0</v>
+      <c r="I414" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="415" spans="2:9" x14ac:dyDescent="0.25">
@@ -11144,8 +11168,8 @@
       <c r="H415" s="2">
         <v>6.7</v>
       </c>
-      <c r="I415" s="2">
-        <v>0</v>
+      <c r="I415" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="2:9" x14ac:dyDescent="0.25">
@@ -11170,8 +11194,8 @@
       <c r="H416" s="2">
         <v>7.9</v>
       </c>
-      <c r="I416" s="2">
-        <v>0</v>
+      <c r="I416" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="2:9" x14ac:dyDescent="0.25">
@@ -11196,8 +11220,8 @@
       <c r="H417" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="I417" s="2">
-        <v>0</v>
+      <c r="I417" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="2:9" x14ac:dyDescent="0.25">
@@ -11222,8 +11246,8 @@
       <c r="H418" s="2">
         <v>23.1</v>
       </c>
-      <c r="I418" s="2">
-        <v>2</v>
+      <c r="I418" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="2:9" x14ac:dyDescent="0.25">
@@ -11248,8 +11272,8 @@
       <c r="H419" s="2">
         <v>9</v>
       </c>
-      <c r="I419" s="2">
-        <v>2</v>
+      <c r="I419" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="2:9" x14ac:dyDescent="0.25">
@@ -11274,8 +11298,8 @@
       <c r="H420" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I420" s="2">
-        <v>0</v>
+      <c r="I420" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="421" spans="2:9" x14ac:dyDescent="0.25">
@@ -11300,8 +11324,8 @@
       <c r="H421" s="2">
         <v>16.8</v>
       </c>
-      <c r="I421" s="2">
-        <v>1</v>
+      <c r="I421" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="2:9" x14ac:dyDescent="0.25">
@@ -11326,8 +11350,8 @@
       <c r="H422" s="2">
         <v>15.1</v>
       </c>
-      <c r="I422" s="2">
-        <v>2</v>
+      <c r="I422" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="423" spans="2:9" x14ac:dyDescent="0.25">
@@ -11352,8 +11376,8 @@
       <c r="H423" s="2">
         <v>21.4</v>
       </c>
-      <c r="I423" s="2">
-        <v>1</v>
+      <c r="I423" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="2:9" x14ac:dyDescent="0.25">
@@ -11378,8 +11402,8 @@
       <c r="H424" s="2">
         <v>4</v>
       </c>
-      <c r="I424" s="2">
-        <v>0</v>
+      <c r="I424" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="425" spans="2:9" x14ac:dyDescent="0.25">
@@ -11404,8 +11428,8 @@
       <c r="H425" s="2">
         <v>10.5</v>
       </c>
-      <c r="I425" s="2">
-        <v>0</v>
+      <c r="I425" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="2:9" x14ac:dyDescent="0.25">
@@ -11430,8 +11454,8 @@
       <c r="H426" s="2">
         <v>16</v>
       </c>
-      <c r="I426" s="2">
-        <v>2</v>
+      <c r="I426" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="427" spans="2:9" x14ac:dyDescent="0.25">
@@ -11456,8 +11480,8 @@
       <c r="H427" s="2">
         <v>11.4</v>
       </c>
-      <c r="I427" s="2">
-        <v>0</v>
+      <c r="I427" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="2:9" x14ac:dyDescent="0.25">
@@ -11482,8 +11506,8 @@
       <c r="H428" s="2">
         <v>7.6</v>
       </c>
-      <c r="I428" s="2">
-        <v>0</v>
+      <c r="I428" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="429" spans="2:9" x14ac:dyDescent="0.25">
@@ -11508,8 +11532,8 @@
       <c r="H429" s="2">
         <v>28.2</v>
       </c>
-      <c r="I429" s="2">
-        <v>1</v>
+      <c r="I429" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="430" spans="2:9" x14ac:dyDescent="0.25">
@@ -11534,8 +11558,8 @@
       <c r="H430" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="I430" s="2">
-        <v>1</v>
+      <c r="I430" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="431" spans="2:9" x14ac:dyDescent="0.25">
@@ -11560,8 +11584,8 @@
       <c r="H431" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I431" s="2">
-        <v>0</v>
+      <c r="I431" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="2:9" x14ac:dyDescent="0.25">
@@ -11586,8 +11610,8 @@
       <c r="H432" s="2">
         <v>14.8</v>
       </c>
-      <c r="I432" s="2">
-        <v>2</v>
+      <c r="I432" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="2:9" x14ac:dyDescent="0.25">
@@ -11612,8 +11636,8 @@
       <c r="H433" s="2">
         <v>15.1</v>
       </c>
-      <c r="I433" s="2">
-        <v>0</v>
+      <c r="I433" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="434" spans="2:9" x14ac:dyDescent="0.25">
@@ -11638,8 +11662,8 @@
       <c r="H434" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I434" s="2">
-        <v>0</v>
+      <c r="I434" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="435" spans="2:9" x14ac:dyDescent="0.25">
@@ -11664,8 +11688,8 @@
       <c r="H435" s="2">
         <v>20</v>
       </c>
-      <c r="I435" s="2">
-        <v>1</v>
+      <c r="I435" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="436" spans="2:9" x14ac:dyDescent="0.25">
@@ -11690,8 +11714,8 @@
       <c r="H436" s="2">
         <v>19</v>
       </c>
-      <c r="I436" s="2">
-        <v>0</v>
+      <c r="I436" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="2:9" x14ac:dyDescent="0.25">
@@ -11716,8 +11740,8 @@
       <c r="H437" s="2">
         <v>9.1</v>
       </c>
-      <c r="I437" s="2">
-        <v>2</v>
+      <c r="I437" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="2:9" x14ac:dyDescent="0.25">
@@ -11742,8 +11766,8 @@
       <c r="H438" s="2">
         <v>7.7</v>
       </c>
-      <c r="I438" s="2">
-        <v>0</v>
+      <c r="I438" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="2:9" x14ac:dyDescent="0.25">
@@ -11768,8 +11792,8 @@
       <c r="H439" s="2">
         <v>15.7</v>
       </c>
-      <c r="I439" s="2">
-        <v>1</v>
+      <c r="I439" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="440" spans="2:9" x14ac:dyDescent="0.25">
@@ -11794,8 +11818,8 @@
       <c r="H440" s="2">
         <v>5.8</v>
       </c>
-      <c r="I440" s="2">
-        <v>0</v>
+      <c r="I440" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="441" spans="2:9" x14ac:dyDescent="0.25">
@@ -11820,8 +11844,8 @@
       <c r="H441" s="2">
         <v>1.7</v>
       </c>
-      <c r="I441" s="2">
-        <v>0</v>
+      <c r="I441" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="442" spans="2:9" x14ac:dyDescent="0.25">
@@ -11846,8 +11870,8 @@
       <c r="H442" s="2">
         <v>4.5</v>
       </c>
-      <c r="I442" s="2">
-        <v>0</v>
+      <c r="I442" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="2:9" x14ac:dyDescent="0.25">
@@ -11872,8 +11896,8 @@
       <c r="H443" s="2">
         <v>15.6</v>
       </c>
-      <c r="I443" s="2">
-        <v>1</v>
+      <c r="I443" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="444" spans="2:9" x14ac:dyDescent="0.25">
@@ -11898,8 +11922,8 @@
       <c r="H444" s="2">
         <v>6.2</v>
       </c>
-      <c r="I444" s="2">
-        <v>0</v>
+      <c r="I444" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="2:9" x14ac:dyDescent="0.25">
@@ -11924,8 +11948,8 @@
       <c r="H445" s="2">
         <v>1.7</v>
       </c>
-      <c r="I445" s="2">
-        <v>0</v>
+      <c r="I445" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="446" spans="2:9" x14ac:dyDescent="0.25">
@@ -11950,8 +11974,8 @@
       <c r="H446" s="2">
         <v>8.5</v>
       </c>
-      <c r="I446" s="2">
-        <v>0</v>
+      <c r="I446" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="447" spans="2:9" x14ac:dyDescent="0.25">
@@ -11976,8 +12000,8 @@
       <c r="H447" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I447" s="2">
-        <v>0</v>
+      <c r="I447" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="448" spans="2:9" x14ac:dyDescent="0.25">
@@ -12002,8 +12026,8 @@
       <c r="H448" s="2">
         <v>7.8</v>
       </c>
-      <c r="I448" s="2">
-        <v>1</v>
+      <c r="I448" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="449" spans="2:9" x14ac:dyDescent="0.25">
@@ -12028,8 +12052,8 @@
       <c r="H449" s="2">
         <v>11.4</v>
       </c>
-      <c r="I449" s="2">
-        <v>1</v>
+      <c r="I449" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="450" spans="2:9" x14ac:dyDescent="0.25">
@@ -12054,8 +12078,8 @@
       <c r="H450" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="I450" s="2">
-        <v>2</v>
+      <c r="I450" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="2:9" x14ac:dyDescent="0.25">
@@ -12080,8 +12104,8 @@
       <c r="H451" s="2">
         <v>1.3</v>
       </c>
-      <c r="I451" s="2">
-        <v>0</v>
+      <c r="I451" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="452" spans="2:9" x14ac:dyDescent="0.25">
@@ -12106,8 +12130,8 @@
       <c r="H452" s="2">
         <v>10.6</v>
       </c>
-      <c r="I452" s="2">
-        <v>0</v>
+      <c r="I452" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="453" spans="2:9" x14ac:dyDescent="0.25">
@@ -12132,8 +12156,8 @@
       <c r="H453" s="2">
         <v>5.6</v>
       </c>
-      <c r="I453" s="2">
-        <v>0</v>
+      <c r="I453" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="454" spans="2:9" x14ac:dyDescent="0.25">
@@ -12158,8 +12182,8 @@
       <c r="H454" s="2">
         <v>3.6</v>
       </c>
-      <c r="I454" s="2">
-        <v>0</v>
+      <c r="I454" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="455" spans="2:9" x14ac:dyDescent="0.25">
@@ -12184,8 +12208,8 @@
       <c r="H455" s="2">
         <v>26.5</v>
       </c>
-      <c r="I455" s="2">
-        <v>1</v>
+      <c r="I455" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="456" spans="2:9" x14ac:dyDescent="0.25">
@@ -12210,8 +12234,8 @@
       <c r="H456" s="2">
         <v>13.8</v>
       </c>
-      <c r="I456" s="2">
-        <v>2</v>
+      <c r="I456" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="457" spans="2:9" x14ac:dyDescent="0.25">
@@ -12236,8 +12260,8 @@
       <c r="H457" s="2">
         <v>7.7</v>
       </c>
-      <c r="I457" s="2">
-        <v>0</v>
+      <c r="I457" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="458" spans="2:9" x14ac:dyDescent="0.25">
@@ -12262,8 +12286,8 @@
       <c r="H458" s="2">
         <v>7.2</v>
       </c>
-      <c r="I458" s="2">
-        <v>0</v>
+      <c r="I458" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="459" spans="2:9" x14ac:dyDescent="0.25">
@@ -12288,8 +12312,8 @@
       <c r="H459" s="2">
         <v>11.5</v>
       </c>
-      <c r="I459" s="2">
-        <v>1</v>
+      <c r="I459" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="460" spans="2:9" x14ac:dyDescent="0.25">
@@ -12314,8 +12338,8 @@
       <c r="H460" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I460" s="2">
-        <v>0</v>
+      <c r="I460" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="2:9" x14ac:dyDescent="0.25">
@@ -12340,8 +12364,8 @@
       <c r="H461" s="2">
         <v>27.7</v>
       </c>
-      <c r="I461" s="2">
-        <v>2</v>
+      <c r="I461" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="462" spans="2:9" x14ac:dyDescent="0.25">
@@ -12366,8 +12390,8 @@
       <c r="H462" s="2">
         <v>9.4</v>
       </c>
-      <c r="I462" s="2">
-        <v>0</v>
+      <c r="I462" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="2:9" x14ac:dyDescent="0.25">
@@ -12392,8 +12416,8 @@
       <c r="H463" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I463" s="2">
-        <v>0</v>
+      <c r="I463" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="464" spans="2:9" x14ac:dyDescent="0.25">
@@ -12418,8 +12442,8 @@
       <c r="H464" s="2">
         <v>15.3</v>
       </c>
-      <c r="I464" s="2">
-        <v>1</v>
+      <c r="I464" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="465" spans="2:9" x14ac:dyDescent="0.25">
@@ -12444,8 +12468,8 @@
       <c r="H465" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I465" s="2">
-        <v>0</v>
+      <c r="I465" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="466" spans="2:9" x14ac:dyDescent="0.25">
@@ -12470,8 +12494,8 @@
       <c r="H466" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I466" s="2">
-        <v>1</v>
+      <c r="I466" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="467" spans="2:9" x14ac:dyDescent="0.25">
@@ -12496,8 +12520,8 @@
       <c r="H467" s="2">
         <v>23.8</v>
       </c>
-      <c r="I467" s="2">
-        <v>0</v>
+      <c r="I467" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="468" spans="2:9" x14ac:dyDescent="0.25">
@@ -12522,8 +12546,8 @@
       <c r="H468" s="2">
         <v>16.3</v>
       </c>
-      <c r="I468" s="2">
-        <v>0</v>
+      <c r="I468" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="2:9" x14ac:dyDescent="0.25">
@@ -12548,8 +12572,8 @@
       <c r="H469" s="2">
         <v>2.9</v>
       </c>
-      <c r="I469" s="2">
-        <v>0</v>
+      <c r="I469" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="470" spans="2:9" x14ac:dyDescent="0.25">
@@ -12574,8 +12598,8 @@
       <c r="H470" s="2">
         <v>10.8</v>
       </c>
-      <c r="I470" s="2">
-        <v>0</v>
+      <c r="I470" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="2:9" x14ac:dyDescent="0.25">
@@ -12600,8 +12624,8 @@
       <c r="H471" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I471" s="2">
-        <v>0</v>
+      <c r="I471" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="472" spans="2:9" x14ac:dyDescent="0.25">
@@ -12626,8 +12650,8 @@
       <c r="H472" s="2">
         <v>6.2</v>
       </c>
-      <c r="I472" s="2">
-        <v>0</v>
+      <c r="I472" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="473" spans="2:9" x14ac:dyDescent="0.25">
@@ -12652,8 +12676,8 @@
       <c r="H473" s="2">
         <v>4.8</v>
       </c>
-      <c r="I473" s="2">
-        <v>0</v>
+      <c r="I473" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="474" spans="2:9" x14ac:dyDescent="0.25">
@@ -12678,8 +12702,8 @@
       <c r="H474" s="2">
         <v>16.5</v>
       </c>
-      <c r="I474" s="2">
-        <v>1</v>
+      <c r="I474" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="475" spans="2:9" x14ac:dyDescent="0.25">
@@ -12704,8 +12728,8 @@
       <c r="H475" s="2">
         <v>11.7</v>
       </c>
-      <c r="I475" s="2">
-        <v>1</v>
+      <c r="I475" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="476" spans="2:9" x14ac:dyDescent="0.25">
@@ -12730,8 +12754,8 @@
       <c r="H476" s="2">
         <v>13.9</v>
       </c>
-      <c r="I476" s="2">
-        <v>0</v>
+      <c r="I476" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="477" spans="2:9" x14ac:dyDescent="0.25">
@@ -12756,8 +12780,8 @@
       <c r="H477" s="2">
         <v>9.1</v>
       </c>
-      <c r="I477" s="2">
-        <v>0</v>
+      <c r="I477" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="478" spans="2:9" x14ac:dyDescent="0.25">
@@ -12782,8 +12806,8 @@
       <c r="H478" s="2">
         <v>7.8</v>
       </c>
-      <c r="I478" s="2">
-        <v>1</v>
+      <c r="I478" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="479" spans="2:9" x14ac:dyDescent="0.25">
@@ -12808,8 +12832,8 @@
       <c r="H479" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I479" s="2">
-        <v>0</v>
+      <c r="I479" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="480" spans="2:9" x14ac:dyDescent="0.25">
@@ -12834,8 +12858,8 @@
       <c r="H480" s="2">
         <v>8.4</v>
       </c>
-      <c r="I480" s="2">
-        <v>2</v>
+      <c r="I480" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="481" spans="2:9" x14ac:dyDescent="0.25">
@@ -12860,8 +12884,8 @@
       <c r="H481" s="2">
         <v>9.6</v>
       </c>
-      <c r="I481" s="2">
-        <v>0</v>
+      <c r="I481" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="482" spans="2:9" x14ac:dyDescent="0.25">
@@ -12886,8 +12910,8 @@
       <c r="H482" s="2">
         <v>5.8</v>
       </c>
-      <c r="I482" s="2">
-        <v>0</v>
+      <c r="I482" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="2:9" x14ac:dyDescent="0.25">
@@ -12912,8 +12936,8 @@
       <c r="H483" s="2">
         <v>6</v>
       </c>
-      <c r="I483" s="2">
-        <v>0</v>
+      <c r="I483" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="484" spans="2:9" x14ac:dyDescent="0.25">
@@ -12938,8 +12962,8 @@
       <c r="H484" s="2">
         <v>28.9</v>
       </c>
-      <c r="I484" s="2">
-        <v>2</v>
+      <c r="I484" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="485" spans="2:9" x14ac:dyDescent="0.25">
@@ -12964,8 +12988,8 @@
       <c r="H485" s="2">
         <v>13.8</v>
       </c>
-      <c r="I485" s="2">
-        <v>0</v>
+      <c r="I485" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="486" spans="2:9" x14ac:dyDescent="0.25">
@@ -12990,8 +13014,8 @@
       <c r="H486" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="I486" s="2">
-        <v>2</v>
+      <c r="I486" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="487" spans="2:9" x14ac:dyDescent="0.25">
@@ -13016,8 +13040,8 @@
       <c r="H487" s="2">
         <v>5.4</v>
       </c>
-      <c r="I487" s="2">
-        <v>0</v>
+      <c r="I487" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="488" spans="2:9" x14ac:dyDescent="0.25">
@@ -13042,8 +13066,8 @@
       <c r="H488" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="I488" s="2">
-        <v>0</v>
+      <c r="I488" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="489" spans="2:9" x14ac:dyDescent="0.25">
@@ -13068,8 +13092,8 @@
       <c r="H489" s="2">
         <v>10.1</v>
       </c>
-      <c r="I489" s="2">
-        <v>0</v>
+      <c r="I489" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="490" spans="2:9" x14ac:dyDescent="0.25">
@@ -13094,8 +13118,8 @@
       <c r="H490" s="2">
         <v>4.3</v>
       </c>
-      <c r="I490" s="2">
-        <v>0</v>
+      <c r="I490" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="491" spans="2:9" x14ac:dyDescent="0.25">
@@ -13120,8 +13144,8 @@
       <c r="H491" s="2">
         <v>18.5</v>
       </c>
-      <c r="I491" s="2">
-        <v>0</v>
+      <c r="I491" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="492" spans="2:9" x14ac:dyDescent="0.25">
@@ -13146,8 +13170,8 @@
       <c r="H492" s="2">
         <v>11.5</v>
       </c>
-      <c r="I492" s="2">
-        <v>1</v>
+      <c r="I492" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="493" spans="2:9" x14ac:dyDescent="0.25">
@@ -13172,8 +13196,8 @@
       <c r="H493" s="2">
         <v>18</v>
       </c>
-      <c r="I493" s="2">
-        <v>2</v>
+      <c r="I493" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="494" spans="2:9" x14ac:dyDescent="0.25">
@@ -13198,8 +13222,8 @@
       <c r="H494" s="2">
         <v>4.5</v>
       </c>
-      <c r="I494" s="2">
-        <v>2</v>
+      <c r="I494" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="495" spans="2:9" x14ac:dyDescent="0.25">
@@ -13224,8 +13248,8 @@
       <c r="H495" s="2">
         <v>20.2</v>
       </c>
-      <c r="I495" s="2">
-        <v>0</v>
+      <c r="I495" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="2:9" x14ac:dyDescent="0.25">
@@ -13250,8 +13274,8 @@
       <c r="H496" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="I496" s="2">
-        <v>1</v>
+      <c r="I496" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="2:9" x14ac:dyDescent="0.25">
@@ -13276,8 +13300,8 @@
       <c r="H497" s="2">
         <v>8</v>
       </c>
-      <c r="I497" s="2">
-        <v>0</v>
+      <c r="I497" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="498" spans="2:9" x14ac:dyDescent="0.25">
@@ -13302,8 +13326,8 @@
       <c r="H498" s="2">
         <v>15.8</v>
       </c>
-      <c r="I498" s="2">
-        <v>1</v>
+      <c r="I498" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="499" spans="2:9" x14ac:dyDescent="0.25">
@@ -13328,8 +13352,8 @@
       <c r="H499" s="2">
         <v>5.9</v>
       </c>
-      <c r="I499" s="2">
-        <v>0</v>
+      <c r="I499" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="500" spans="2:9" x14ac:dyDescent="0.25">
@@ -13354,8 +13378,8 @@
       <c r="H500" s="2">
         <v>10.4</v>
       </c>
-      <c r="I500" s="2">
-        <v>0</v>
+      <c r="I500" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="501" spans="2:9" x14ac:dyDescent="0.25">
@@ -13380,8 +13404,8 @@
       <c r="H501" s="2">
         <v>16.3</v>
       </c>
-      <c r="I501" s="2">
-        <v>2</v>
+      <c r="I501" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="502" spans="2:9" x14ac:dyDescent="0.25">
@@ -13406,8 +13430,8 @@
       <c r="H502" s="2">
         <v>41.3</v>
       </c>
-      <c r="I502" s="2">
-        <v>1</v>
+      <c r="I502" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="503" spans="2:9" x14ac:dyDescent="0.25">
@@ -13432,8 +13456,8 @@
       <c r="H503" s="2">
         <v>9.6</v>
       </c>
-      <c r="I503" s="2">
-        <v>0</v>
+      <c r="I503" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="504" spans="2:9" x14ac:dyDescent="0.25">
@@ -13458,8 +13482,8 @@
       <c r="H504" s="2">
         <v>5.9</v>
       </c>
-      <c r="I504" s="2">
-        <v>2</v>
+      <c r="I504" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="505" spans="2:9" x14ac:dyDescent="0.25">
@@ -13484,8 +13508,8 @@
       <c r="H505" s="2">
         <v>6.6</v>
       </c>
-      <c r="I505" s="2">
-        <v>2</v>
+      <c r="I505" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="506" spans="2:9" x14ac:dyDescent="0.25">
@@ -13510,8 +13534,8 @@
       <c r="H506" s="2">
         <v>13.3</v>
       </c>
-      <c r="I506" s="2">
-        <v>2</v>
+      <c r="I506" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="507" spans="2:9" x14ac:dyDescent="0.25">
@@ -13536,8 +13560,8 @@
       <c r="H507" s="2">
         <v>11.8</v>
       </c>
-      <c r="I507" s="2">
-        <v>1</v>
+      <c r="I507" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="508" spans="2:9" x14ac:dyDescent="0.25">
@@ -13562,8 +13586,8 @@
       <c r="H508" s="2">
         <v>6.1</v>
       </c>
-      <c r="I508" s="2">
-        <v>1</v>
+      <c r="I508" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="509" spans="2:9" x14ac:dyDescent="0.25">
@@ -13588,8 +13612,8 @@
       <c r="H509" s="2">
         <v>6.8</v>
       </c>
-      <c r="I509" s="2">
-        <v>2</v>
+      <c r="I509" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="510" spans="2:9" x14ac:dyDescent="0.25">
@@ -13614,8 +13638,8 @@
       <c r="H510" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I510" s="2">
-        <v>0</v>
+      <c r="I510" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="2:9" x14ac:dyDescent="0.25">
@@ -13640,8 +13664,8 @@
       <c r="H511" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I511" s="2">
-        <v>0</v>
+      <c r="I511" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="512" spans="2:9" x14ac:dyDescent="0.25">
@@ -13666,8 +13690,8 @@
       <c r="H512" s="2">
         <v>22.9</v>
       </c>
-      <c r="I512" s="2">
-        <v>2</v>
+      <c r="I512" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="513" spans="2:9" x14ac:dyDescent="0.25">
@@ -13692,8 +13716,8 @@
       <c r="H513" s="2">
         <v>5.8</v>
       </c>
-      <c r="I513" s="2">
-        <v>1</v>
+      <c r="I513" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="514" spans="2:9" x14ac:dyDescent="0.25">
@@ -13718,8 +13742,8 @@
       <c r="H514" s="2">
         <v>21.2</v>
       </c>
-      <c r="I514" s="2">
-        <v>2</v>
+      <c r="I514" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="515" spans="2:9" x14ac:dyDescent="0.25">
@@ -13744,8 +13768,8 @@
       <c r="H515" s="2">
         <v>12.7</v>
       </c>
-      <c r="I515" s="2">
-        <v>2</v>
+      <c r="I515" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="516" spans="2:9" x14ac:dyDescent="0.25">
@@ -13770,8 +13794,8 @@
       <c r="H516" s="2">
         <v>10.4</v>
       </c>
-      <c r="I516" s="2">
-        <v>0</v>
+      <c r="I516" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="517" spans="2:9" x14ac:dyDescent="0.25">
@@ -13796,8 +13820,8 @@
       <c r="H517" s="2">
         <v>11.1</v>
       </c>
-      <c r="I517" s="2">
-        <v>2</v>
+      <c r="I517" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="518" spans="2:9" x14ac:dyDescent="0.25">
@@ -13822,8 +13846,8 @@
       <c r="H518" s="2">
         <v>26.5</v>
       </c>
-      <c r="I518" s="2">
-        <v>1</v>
+      <c r="I518" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="519" spans="2:9" x14ac:dyDescent="0.25">
@@ -13848,8 +13872,8 @@
       <c r="H519" s="2">
         <v>3.7</v>
       </c>
-      <c r="I519" s="2">
-        <v>0</v>
+      <c r="I519" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="2:9" x14ac:dyDescent="0.25">
@@ -13874,8 +13898,8 @@
       <c r="H520" s="2">
         <v>13.8</v>
       </c>
-      <c r="I520" s="2">
-        <v>0</v>
+      <c r="I520" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="2:9" x14ac:dyDescent="0.25">
@@ -13900,8 +13924,8 @@
       <c r="H521" s="2">
         <v>11.4</v>
       </c>
-      <c r="I521" s="2">
-        <v>2</v>
+      <c r="I521" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="522" spans="2:9" x14ac:dyDescent="0.25">
@@ -13926,8 +13950,8 @@
       <c r="H522" s="2">
         <v>7.2</v>
       </c>
-      <c r="I522" s="2">
-        <v>0</v>
+      <c r="I522" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="523" spans="2:9" x14ac:dyDescent="0.25">
@@ -13952,8 +13976,8 @@
       <c r="H523" s="2">
         <v>11.3</v>
       </c>
-      <c r="I523" s="2">
-        <v>2</v>
+      <c r="I523" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="524" spans="2:9" x14ac:dyDescent="0.25">
@@ -13978,8 +14002,8 @@
       <c r="H524" s="2">
         <v>15.4</v>
       </c>
-      <c r="I524" s="2">
-        <v>1</v>
+      <c r="I524" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="525" spans="2:9" x14ac:dyDescent="0.25">
@@ -14004,8 +14028,8 @@
       <c r="H525" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="I525" s="2">
-        <v>2</v>
+      <c r="I525" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="526" spans="2:9" x14ac:dyDescent="0.25">
@@ -14030,8 +14054,8 @@
       <c r="H526" s="2">
         <v>13.3</v>
       </c>
-      <c r="I526" s="2">
-        <v>0</v>
+      <c r="I526" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="527" spans="2:9" x14ac:dyDescent="0.25">
@@ -14056,8 +14080,8 @@
       <c r="H527" s="2">
         <v>5.5</v>
       </c>
-      <c r="I527" s="2">
-        <v>0</v>
+      <c r="I527" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="528" spans="2:9" x14ac:dyDescent="0.25">
@@ -14082,8 +14106,8 @@
       <c r="H528" s="2">
         <v>14.8</v>
       </c>
-      <c r="I528" s="2">
-        <v>2</v>
+      <c r="I528" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="529" spans="2:9" x14ac:dyDescent="0.25">
@@ -14108,8 +14132,8 @@
       <c r="H529" s="2">
         <v>10.8</v>
       </c>
-      <c r="I529" s="2">
-        <v>0</v>
+      <c r="I529" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="530" spans="2:9" x14ac:dyDescent="0.25">
@@ -14134,8 +14158,8 @@
       <c r="H530" s="2">
         <v>7.9</v>
       </c>
-      <c r="I530" s="2">
-        <v>0</v>
+      <c r="I530" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="531" spans="2:9" x14ac:dyDescent="0.25">
@@ -14160,8 +14184,8 @@
       <c r="H531" s="2">
         <v>4.8</v>
       </c>
-      <c r="I531" s="2">
-        <v>2</v>
+      <c r="I531" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="532" spans="2:9" x14ac:dyDescent="0.25">
@@ -14186,8 +14210,8 @@
       <c r="H532" s="2">
         <v>8.6</v>
       </c>
-      <c r="I532" s="2">
-        <v>2</v>
+      <c r="I532" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="533" spans="2:9" x14ac:dyDescent="0.25">
@@ -14212,8 +14236,8 @@
       <c r="H533" s="2">
         <v>25.6</v>
       </c>
-      <c r="I533" s="2">
-        <v>2</v>
+      <c r="I533" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="534" spans="2:9" x14ac:dyDescent="0.25">
@@ -14238,8 +14262,8 @@
       <c r="H534" s="2">
         <v>17.3</v>
       </c>
-      <c r="I534" s="2">
-        <v>0</v>
+      <c r="I534" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="535" spans="2:9" x14ac:dyDescent="0.25">
@@ -14264,8 +14288,8 @@
       <c r="H535" s="2">
         <v>7.8</v>
       </c>
-      <c r="I535" s="2">
-        <v>0</v>
+      <c r="I535" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="536" spans="2:9" x14ac:dyDescent="0.25">
@@ -14290,8 +14314,8 @@
       <c r="H536" s="2">
         <v>23.7</v>
       </c>
-      <c r="I536" s="2">
-        <v>0</v>
+      <c r="I536" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="537" spans="2:9" x14ac:dyDescent="0.25">
@@ -14316,8 +14340,8 @@
       <c r="H537" s="2">
         <v>6.5</v>
       </c>
-      <c r="I537" s="2">
-        <v>1</v>
+      <c r="I537" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="538" spans="2:9" x14ac:dyDescent="0.25">
@@ -14342,8 +14366,8 @@
       <c r="H538" s="2">
         <v>14.7</v>
       </c>
-      <c r="I538" s="2">
-        <v>1</v>
+      <c r="I538" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="539" spans="2:9" x14ac:dyDescent="0.25">
@@ -14368,8 +14392,8 @@
       <c r="H539" s="2">
         <v>2.4</v>
       </c>
-      <c r="I539" s="2">
-        <v>0</v>
+      <c r="I539" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="540" spans="2:9" x14ac:dyDescent="0.25">
@@ -14394,8 +14418,8 @@
       <c r="H540" s="2">
         <v>7.3</v>
       </c>
-      <c r="I540" s="2">
-        <v>0</v>
+      <c r="I540" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="541" spans="2:9" x14ac:dyDescent="0.25">
@@ -14420,8 +14444,8 @@
       <c r="H541" s="2">
         <v>6.4</v>
       </c>
-      <c r="I541" s="2">
-        <v>2</v>
+      <c r="I541" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="542" spans="2:9" x14ac:dyDescent="0.25">
@@ -14446,8 +14470,8 @@
       <c r="H542" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I542" s="2">
-        <v>0</v>
+      <c r="I542" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="543" spans="2:9" x14ac:dyDescent="0.25">
@@ -14472,8 +14496,8 @@
       <c r="H543" s="2">
         <v>9</v>
       </c>
-      <c r="I543" s="2">
-        <v>0</v>
+      <c r="I543" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="544" spans="2:9" x14ac:dyDescent="0.25">
@@ -14498,8 +14522,8 @@
       <c r="H544" s="2">
         <v>15</v>
       </c>
-      <c r="I544" s="2">
-        <v>2</v>
+      <c r="I544" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="545" spans="2:9" x14ac:dyDescent="0.25">
@@ -14524,8 +14548,8 @@
       <c r="H545" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I545" s="2">
-        <v>1</v>
+      <c r="I545" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="546" spans="2:9" x14ac:dyDescent="0.25">
@@ -14550,8 +14574,8 @@
       <c r="H546" s="2">
         <v>0.6</v>
       </c>
-      <c r="I546" s="2">
-        <v>0</v>
+      <c r="I546" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="547" spans="2:9" x14ac:dyDescent="0.25">
@@ -14576,8 +14600,8 @@
       <c r="H547" s="2">
         <v>3.1</v>
       </c>
-      <c r="I547" s="2">
-        <v>2</v>
+      <c r="I547" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="548" spans="2:9" x14ac:dyDescent="0.25">
@@ -14602,8 +14626,8 @@
       <c r="H548" s="2">
         <v>10.1</v>
       </c>
-      <c r="I548" s="2">
-        <v>0</v>
+      <c r="I548" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="549" spans="2:9" x14ac:dyDescent="0.25">
@@ -14628,8 +14652,8 @@
       <c r="H549" s="2">
         <v>7</v>
       </c>
-      <c r="I549" s="2">
-        <v>0</v>
+      <c r="I549" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="550" spans="2:9" x14ac:dyDescent="0.25">
@@ -14654,8 +14678,8 @@
       <c r="H550" s="2">
         <v>0.4</v>
       </c>
-      <c r="I550" s="2">
-        <v>0</v>
+      <c r="I550" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="551" spans="2:9" x14ac:dyDescent="0.25">
@@ -14680,8 +14704,8 @@
       <c r="H551" s="2">
         <v>8.6</v>
       </c>
-      <c r="I551" s="2">
-        <v>2</v>
+      <c r="I551" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="552" spans="2:9" x14ac:dyDescent="0.25">
@@ -14706,8 +14730,8 @@
       <c r="H552" s="2">
         <v>12.4</v>
       </c>
-      <c r="I552" s="2">
-        <v>0</v>
+      <c r="I552" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="553" spans="2:9" x14ac:dyDescent="0.25">
@@ -14732,8 +14756,8 @@
       <c r="H553" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I553" s="2">
-        <v>1</v>
+      <c r="I553" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="554" spans="2:9" x14ac:dyDescent="0.25">
@@ -14758,8 +14782,8 @@
       <c r="H554" s="2">
         <v>5.6</v>
       </c>
-      <c r="I554" s="2">
-        <v>0</v>
+      <c r="I554" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="555" spans="2:9" x14ac:dyDescent="0.25">
@@ -14784,8 +14808,8 @@
       <c r="H555" s="2">
         <v>23.8</v>
       </c>
-      <c r="I555" s="2">
-        <v>1</v>
+      <c r="I555" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="556" spans="2:9" x14ac:dyDescent="0.25">
@@ -14810,8 +14834,8 @@
       <c r="H556" s="2">
         <v>2</v>
       </c>
-      <c r="I556" s="2">
-        <v>1</v>
+      <c r="I556" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="557" spans="2:9" x14ac:dyDescent="0.25">
@@ -14836,8 +14860,8 @@
       <c r="H557" s="2">
         <v>10</v>
       </c>
-      <c r="I557" s="2">
-        <v>0</v>
+      <c r="I557" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="558" spans="2:9" x14ac:dyDescent="0.25">
@@ -14862,8 +14886,8 @@
       <c r="H558" s="2">
         <v>2.8</v>
       </c>
-      <c r="I558" s="2">
-        <v>1</v>
+      <c r="I558" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="2:9" x14ac:dyDescent="0.25">
@@ -14888,8 +14912,8 @@
       <c r="H559" s="2">
         <v>8.6</v>
       </c>
-      <c r="I559" s="2">
-        <v>0</v>
+      <c r="I559" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="560" spans="2:9" x14ac:dyDescent="0.25">
@@ -14914,8 +14938,8 @@
       <c r="H560" s="2">
         <v>12.9</v>
       </c>
-      <c r="I560" s="2">
-        <v>0</v>
+      <c r="I560" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="561" spans="2:9" x14ac:dyDescent="0.25">
@@ -14940,8 +14964,8 @@
       <c r="H561" s="2">
         <v>7.7</v>
       </c>
-      <c r="I561" s="2">
-        <v>1</v>
+      <c r="I561" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="2:9" x14ac:dyDescent="0.25">
@@ -14966,8 +14990,8 @@
       <c r="H562" s="2">
         <v>4.3</v>
       </c>
-      <c r="I562" s="2">
-        <v>0</v>
+      <c r="I562" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="563" spans="2:9" x14ac:dyDescent="0.25">
@@ -14992,8 +15016,8 @@
       <c r="H563" s="2">
         <v>19.8</v>
       </c>
-      <c r="I563" s="2">
-        <v>2</v>
+      <c r="I563" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="564" spans="2:9" x14ac:dyDescent="0.25">
@@ -15018,8 +15042,8 @@
       <c r="H564" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I564" s="2">
-        <v>0</v>
+      <c r="I564" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="565" spans="2:9" x14ac:dyDescent="0.25">
@@ -15044,8 +15068,8 @@
       <c r="H565" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I565" s="2">
-        <v>0</v>
+      <c r="I565" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="566" spans="2:9" x14ac:dyDescent="0.25">
@@ -15070,8 +15094,8 @@
       <c r="H566" s="2">
         <v>3.2</v>
       </c>
-      <c r="I566" s="2">
-        <v>0</v>
+      <c r="I566" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="567" spans="2:9" x14ac:dyDescent="0.25">
@@ -15096,8 +15120,8 @@
       <c r="H567" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="I567" s="2">
-        <v>0</v>
+      <c r="I567" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="568" spans="2:9" x14ac:dyDescent="0.25">
@@ -15122,8 +15146,8 @@
       <c r="H568" s="2">
         <v>14.5</v>
       </c>
-      <c r="I568" s="2">
-        <v>2</v>
+      <c r="I568" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="569" spans="2:9" x14ac:dyDescent="0.25">
@@ -15148,8 +15172,8 @@
       <c r="H569" s="2">
         <v>5</v>
       </c>
-      <c r="I569" s="2">
-        <v>2</v>
+      <c r="I569" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="570" spans="2:9" x14ac:dyDescent="0.25">
@@ -15174,8 +15198,8 @@
       <c r="H570" s="2">
         <v>7.6</v>
       </c>
-      <c r="I570" s="2">
-        <v>0</v>
+      <c r="I570" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="2:9" x14ac:dyDescent="0.25">
@@ -15200,8 +15224,8 @@
       <c r="H571" s="2">
         <v>10.5</v>
       </c>
-      <c r="I571" s="2">
-        <v>1</v>
+      <c r="I571" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="2:9" x14ac:dyDescent="0.25">
@@ -15226,8 +15250,8 @@
       <c r="H572" s="2">
         <v>5.2</v>
       </c>
-      <c r="I572" s="2">
-        <v>0</v>
+      <c r="I572" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="573" spans="2:9" x14ac:dyDescent="0.25">
@@ -15252,8 +15276,8 @@
       <c r="H573" s="2">
         <v>30.6</v>
       </c>
-      <c r="I573" s="2">
-        <v>1</v>
+      <c r="I573" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="574" spans="2:9" x14ac:dyDescent="0.25">
@@ -15278,8 +15302,8 @@
       <c r="H574" s="2">
         <v>5.4</v>
       </c>
-      <c r="I574" s="2">
-        <v>0</v>
+      <c r="I574" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="575" spans="2:9" x14ac:dyDescent="0.25">
@@ -15304,8 +15328,8 @@
       <c r="H575" s="2">
         <v>12.6</v>
       </c>
-      <c r="I575" s="2">
-        <v>0</v>
+      <c r="I575" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="576" spans="2:9" x14ac:dyDescent="0.25">
@@ -15330,8 +15354,8 @@
       <c r="H576" s="2">
         <v>16</v>
       </c>
-      <c r="I576" s="2">
-        <v>1</v>
+      <c r="I576" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="577" spans="2:9" x14ac:dyDescent="0.25">
@@ -15356,8 +15380,8 @@
       <c r="H577" s="2">
         <v>11.6</v>
       </c>
-      <c r="I577" s="2">
-        <v>0</v>
+      <c r="I577" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="578" spans="2:9" x14ac:dyDescent="0.25">
@@ -15382,8 +15406,8 @@
       <c r="H578" s="2">
         <v>8.4</v>
       </c>
-      <c r="I578" s="2">
-        <v>2</v>
+      <c r="I578" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="579" spans="2:9" x14ac:dyDescent="0.25">
@@ -15408,8 +15432,8 @@
       <c r="H579" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I579" s="2">
-        <v>0</v>
+      <c r="I579" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="580" spans="2:9" x14ac:dyDescent="0.25">
@@ -15434,8 +15458,8 @@
       <c r="H580" s="2">
         <v>24.2</v>
       </c>
-      <c r="I580" s="2">
-        <v>2</v>
+      <c r="I580" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="581" spans="2:9" x14ac:dyDescent="0.25">
@@ -15460,8 +15484,8 @@
       <c r="H581" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="I581" s="2">
-        <v>0</v>
+      <c r="I581" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="582" spans="2:9" x14ac:dyDescent="0.25">
@@ -15486,8 +15510,8 @@
       <c r="H582" s="2">
         <v>6.1</v>
       </c>
-      <c r="I582" s="2">
-        <v>2</v>
+      <c r="I582" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="2:9" x14ac:dyDescent="0.25">
@@ -15512,8 +15536,8 @@
       <c r="H583" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I583" s="2">
-        <v>2</v>
+      <c r="I583" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="584" spans="2:9" x14ac:dyDescent="0.25">
@@ -15538,8 +15562,8 @@
       <c r="H584" s="2">
         <v>11.2</v>
       </c>
-      <c r="I584" s="2">
-        <v>2</v>
+      <c r="I584" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="585" spans="2:9" x14ac:dyDescent="0.25">
@@ -15564,8 +15588,8 @@
       <c r="H585" s="2">
         <v>27.1</v>
       </c>
-      <c r="I585" s="2">
-        <v>1</v>
+      <c r="I585" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="586" spans="2:9" x14ac:dyDescent="0.25">
@@ -15590,8 +15614,8 @@
       <c r="H586" s="2">
         <v>2.5</v>
       </c>
-      <c r="I586" s="2">
-        <v>2</v>
+      <c r="I586" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="587" spans="2:9" x14ac:dyDescent="0.25">
@@ -15616,8 +15640,8 @@
       <c r="H587" s="2">
         <v>8.6</v>
       </c>
-      <c r="I587" s="2">
-        <v>0</v>
+      <c r="I587" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="588" spans="2:9" x14ac:dyDescent="0.25">
@@ -15642,8 +15666,8 @@
       <c r="H588" s="2">
         <v>5</v>
       </c>
-      <c r="I588" s="2">
-        <v>0</v>
+      <c r="I588" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="589" spans="2:9" x14ac:dyDescent="0.25">
@@ -15668,8 +15692,8 @@
       <c r="H589" s="2">
         <v>4.5</v>
       </c>
-      <c r="I589" s="2">
-        <v>0</v>
+      <c r="I589" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="590" spans="2:9" x14ac:dyDescent="0.25">
@@ -15694,8 +15718,8 @@
       <c r="H590" s="2">
         <v>35.299999999999997</v>
       </c>
-      <c r="I590" s="2">
-        <v>2</v>
+      <c r="I590" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="591" spans="2:9" x14ac:dyDescent="0.25">
@@ -15720,8 +15744,8 @@
       <c r="H591" s="2">
         <v>17</v>
       </c>
-      <c r="I591" s="2">
-        <v>0</v>
+      <c r="I591" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="592" spans="2:9" x14ac:dyDescent="0.25">
@@ -15746,8 +15770,8 @@
       <c r="H592" s="2">
         <v>3.7</v>
       </c>
-      <c r="I592" s="2">
-        <v>0</v>
+      <c r="I592" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="593" spans="2:9" x14ac:dyDescent="0.25">
@@ -15772,8 +15796,8 @@
       <c r="H593" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I593" s="2">
-        <v>0</v>
+      <c r="I593" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="594" spans="2:9" x14ac:dyDescent="0.25">
@@ -15798,8 +15822,8 @@
       <c r="H594" s="2">
         <v>15</v>
       </c>
-      <c r="I594" s="2">
-        <v>1</v>
+      <c r="I594" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="595" spans="2:9" x14ac:dyDescent="0.25">
@@ -15824,8 +15848,8 @@
       <c r="H595" s="2">
         <v>9</v>
       </c>
-      <c r="I595" s="2">
-        <v>0</v>
+      <c r="I595" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="596" spans="2:9" x14ac:dyDescent="0.25">
@@ -15850,8 +15874,8 @@
       <c r="H596" s="2">
         <v>13</v>
       </c>
-      <c r="I596" s="2">
-        <v>1</v>
+      <c r="I596" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="597" spans="2:9" x14ac:dyDescent="0.25">
@@ -15876,8 +15900,8 @@
       <c r="H597" s="2">
         <v>5.9</v>
       </c>
-      <c r="I597" s="2">
-        <v>0</v>
+      <c r="I597" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="598" spans="2:9" x14ac:dyDescent="0.25">
@@ -15902,8 +15926,8 @@
       <c r="H598" s="2">
         <v>19.5</v>
       </c>
-      <c r="I598" s="2">
-        <v>2</v>
+      <c r="I598" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="599" spans="2:9" x14ac:dyDescent="0.25">
@@ -15928,8 +15952,8 @@
       <c r="H599" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="I599" s="2">
-        <v>2</v>
+      <c r="I599" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="600" spans="2:9" x14ac:dyDescent="0.25">
@@ -15954,8 +15978,8 @@
       <c r="H600" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I600" s="2">
-        <v>0</v>
+      <c r="I600" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="601" spans="2:9" x14ac:dyDescent="0.25">
@@ -15980,8 +16004,8 @@
       <c r="H601" s="2">
         <v>7.2</v>
       </c>
-      <c r="I601" s="2">
-        <v>0</v>
+      <c r="I601" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="602" spans="2:9" x14ac:dyDescent="0.25">
@@ -16006,8 +16030,8 @@
       <c r="H602" s="2">
         <v>1.2</v>
       </c>
-      <c r="I602" s="2">
-        <v>0</v>
+      <c r="I602" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="603" spans="2:9" x14ac:dyDescent="0.25">
@@ -16032,8 +16056,8 @@
       <c r="H603" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I603" s="2">
-        <v>1</v>
+      <c r="I603" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="604" spans="2:9" x14ac:dyDescent="0.25">
@@ -16058,8 +16082,8 @@
       <c r="H604" s="2">
         <v>9.5</v>
       </c>
-      <c r="I604" s="2">
-        <v>0</v>
+      <c r="I604" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="605" spans="2:9" x14ac:dyDescent="0.25">
@@ -16084,8 +16108,8 @@
       <c r="H605" s="2">
         <v>4.5</v>
       </c>
-      <c r="I605" s="2">
-        <v>0</v>
+      <c r="I605" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="606" spans="2:9" x14ac:dyDescent="0.25">
@@ -16110,8 +16134,8 @@
       <c r="H606" s="2">
         <v>9.6</v>
       </c>
-      <c r="I606" s="2">
-        <v>0</v>
+      <c r="I606" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="607" spans="2:9" x14ac:dyDescent="0.25">
@@ -16136,8 +16160,8 @@
       <c r="H607" s="2">
         <v>14.4</v>
       </c>
-      <c r="I607" s="2">
-        <v>2</v>
+      <c r="I607" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="608" spans="2:9" x14ac:dyDescent="0.25">
@@ -16162,8 +16186,8 @@
       <c r="H608" s="2">
         <v>23.3</v>
       </c>
-      <c r="I608" s="2">
-        <v>2</v>
+      <c r="I608" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="609" spans="2:9" x14ac:dyDescent="0.25">
@@ -16188,8 +16212,8 @@
       <c r="H609" s="2">
         <v>10.4</v>
       </c>
-      <c r="I609" s="2">
-        <v>0</v>
+      <c r="I609" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="610" spans="2:9" x14ac:dyDescent="0.25">
@@ -16214,8 +16238,8 @@
       <c r="H610" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="I610" s="2">
-        <v>1</v>
+      <c r="I610" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="611" spans="2:9" x14ac:dyDescent="0.25">
@@ -16240,8 +16264,8 @@
       <c r="H611" s="2">
         <v>15.4</v>
       </c>
-      <c r="I611" s="2">
-        <v>0</v>
+      <c r="I611" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="612" spans="2:9" x14ac:dyDescent="0.25">
@@ -16266,8 +16290,8 @@
       <c r="H612" s="2">
         <v>11.1</v>
       </c>
-      <c r="I612" s="2">
-        <v>0</v>
+      <c r="I612" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="613" spans="2:9" x14ac:dyDescent="0.25">
@@ -16292,8 +16316,8 @@
       <c r="H613" s="2">
         <v>14.2</v>
       </c>
-      <c r="I613" s="2">
-        <v>2</v>
+      <c r="I613" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="614" spans="2:9" x14ac:dyDescent="0.25">
@@ -16318,8 +16342,8 @@
       <c r="H614" s="2">
         <v>6.9</v>
       </c>
-      <c r="I614" s="2">
-        <v>0</v>
+      <c r="I614" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="615" spans="2:9" x14ac:dyDescent="0.25">
@@ -16344,8 +16368,8 @@
       <c r="H615" s="2">
         <v>5.4</v>
       </c>
-      <c r="I615" s="2">
-        <v>0</v>
+      <c r="I615" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="616" spans="2:9" x14ac:dyDescent="0.25">
@@ -16370,8 +16394,8 @@
       <c r="H616" s="2">
         <v>4.5</v>
       </c>
-      <c r="I616" s="2">
-        <v>0</v>
+      <c r="I616" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="617" spans="2:9" x14ac:dyDescent="0.25">
@@ -16396,8 +16420,8 @@
       <c r="H617" s="2">
         <v>3</v>
       </c>
-      <c r="I617" s="2">
-        <v>2</v>
+      <c r="I617" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="618" spans="2:9" x14ac:dyDescent="0.25">
@@ -16422,8 +16446,8 @@
       <c r="H618" s="2">
         <v>1.4</v>
       </c>
-      <c r="I618" s="2">
-        <v>0</v>
+      <c r="I618" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="619" spans="2:9" x14ac:dyDescent="0.25">
@@ -16448,8 +16472,8 @@
       <c r="H619" s="2">
         <v>13.5</v>
       </c>
-      <c r="I619" s="2">
-        <v>0</v>
+      <c r="I619" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="620" spans="2:9" x14ac:dyDescent="0.25">
@@ -16474,8 +16498,8 @@
       <c r="H620" s="2">
         <v>15</v>
       </c>
-      <c r="I620" s="2">
-        <v>2</v>
+      <c r="I620" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="621" spans="2:9" x14ac:dyDescent="0.25">
@@ -16500,8 +16524,8 @@
       <c r="H621" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="I621" s="2">
-        <v>2</v>
+      <c r="I621" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="622" spans="2:9" x14ac:dyDescent="0.25">
@@ -16526,8 +16550,8 @@
       <c r="H622" s="2">
         <v>4</v>
       </c>
-      <c r="I622" s="2">
-        <v>2</v>
+      <c r="I622" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="623" spans="2:9" x14ac:dyDescent="0.25">
@@ -16552,8 +16576,8 @@
       <c r="H623" s="2">
         <v>7.4</v>
       </c>
-      <c r="I623" s="2">
-        <v>2</v>
+      <c r="I623" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="624" spans="2:9" x14ac:dyDescent="0.25">
@@ -16578,8 +16602,8 @@
       <c r="H624" s="2">
         <v>6.8</v>
       </c>
-      <c r="I624" s="2">
-        <v>0</v>
+      <c r="I624" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="625" spans="2:9" x14ac:dyDescent="0.25">
@@ -16604,8 +16628,8 @@
       <c r="H625" s="2">
         <v>23.6</v>
       </c>
-      <c r="I625" s="2">
-        <v>1</v>
+      <c r="I625" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="626" spans="2:9" x14ac:dyDescent="0.25">
@@ -16630,8 +16654,8 @@
       <c r="H626" s="2">
         <v>12.3</v>
       </c>
-      <c r="I626" s="2">
-        <v>0</v>
+      <c r="I626" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="627" spans="2:9" x14ac:dyDescent="0.25">
@@ -16656,8 +16680,8 @@
       <c r="H627" s="2">
         <v>15</v>
       </c>
-      <c r="I627" s="2">
-        <v>2</v>
+      <c r="I627" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="628" spans="2:9" x14ac:dyDescent="0.25">
@@ -16682,8 +16706,8 @@
       <c r="H628" s="2">
         <v>22.7</v>
       </c>
-      <c r="I628" s="2">
-        <v>2</v>
+      <c r="I628" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="629" spans="2:9" x14ac:dyDescent="0.25">
@@ -16708,8 +16732,8 @@
       <c r="H629" s="2">
         <v>6.7</v>
       </c>
-      <c r="I629" s="2">
-        <v>0</v>
+      <c r="I629" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="630" spans="2:9" x14ac:dyDescent="0.25">
@@ -16734,8 +16758,8 @@
       <c r="H630" s="2">
         <v>19.600000000000001</v>
       </c>
-      <c r="I630" s="2">
-        <v>0</v>
+      <c r="I630" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="631" spans="2:9" x14ac:dyDescent="0.25">
@@ -16760,8 +16784,8 @@
       <c r="H631" s="2">
         <v>4.7</v>
       </c>
-      <c r="I631" s="2">
-        <v>0</v>
+      <c r="I631" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="632" spans="2:9" x14ac:dyDescent="0.25">
@@ -16786,8 +16810,8 @@
       <c r="H632" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I632" s="2">
-        <v>0</v>
+      <c r="I632" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="633" spans="2:9" x14ac:dyDescent="0.25">
@@ -16812,8 +16836,8 @@
       <c r="H633" s="2">
         <v>9.6</v>
       </c>
-      <c r="I633" s="2">
-        <v>1</v>
+      <c r="I633" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="634" spans="2:9" x14ac:dyDescent="0.25">
@@ -16838,8 +16862,8 @@
       <c r="H634" s="2">
         <v>13.9</v>
       </c>
-      <c r="I634" s="2">
-        <v>1</v>
+      <c r="I634" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="635" spans="2:9" x14ac:dyDescent="0.25">
@@ -16864,8 +16888,8 @@
       <c r="H635" s="2">
         <v>13.6</v>
       </c>
-      <c r="I635" s="2">
-        <v>1</v>
+      <c r="I635" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="636" spans="2:9" x14ac:dyDescent="0.25">
@@ -16890,8 +16914,8 @@
       <c r="H636" s="2">
         <v>11.2</v>
       </c>
-      <c r="I636" s="2">
-        <v>2</v>
+      <c r="I636" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="637" spans="2:9" x14ac:dyDescent="0.25">
@@ -16916,8 +16940,8 @@
       <c r="H637" s="2">
         <v>3.2</v>
       </c>
-      <c r="I637" s="2">
-        <v>1</v>
+      <c r="I637" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="638" spans="2:9" x14ac:dyDescent="0.25">
@@ -16942,8 +16966,8 @@
       <c r="H638" s="2">
         <v>5.4</v>
       </c>
-      <c r="I638" s="2">
-        <v>0</v>
+      <c r="I638" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="639" spans="2:9" x14ac:dyDescent="0.25">
@@ -16968,8 +16992,8 @@
       <c r="H639" s="2">
         <v>12.6</v>
       </c>
-      <c r="I639" s="2">
-        <v>1</v>
+      <c r="I639" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="640" spans="2:9" x14ac:dyDescent="0.25">
@@ -16994,8 +17018,8 @@
       <c r="H640" s="2">
         <v>10.3</v>
       </c>
-      <c r="I640" s="2">
-        <v>0</v>
+      <c r="I640" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="641" spans="2:9" x14ac:dyDescent="0.25">
@@ -17020,8 +17044,8 @@
       <c r="H641" s="2">
         <v>15.4</v>
       </c>
-      <c r="I641" s="2">
-        <v>0</v>
+      <c r="I641" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="642" spans="2:9" x14ac:dyDescent="0.25">
@@ -17046,8 +17070,8 @@
       <c r="H642" s="2">
         <v>12.2</v>
       </c>
-      <c r="I642" s="2">
-        <v>1</v>
+      <c r="I642" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="643" spans="2:9" x14ac:dyDescent="0.25">
@@ -17072,8 +17096,8 @@
       <c r="H643" s="2">
         <v>8.4</v>
       </c>
-      <c r="I643" s="2">
-        <v>0</v>
+      <c r="I643" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="644" spans="2:9" x14ac:dyDescent="0.25">
@@ -17098,8 +17122,8 @@
       <c r="H644" s="2">
         <v>7.3</v>
       </c>
-      <c r="I644" s="2">
-        <v>1</v>
+      <c r="I644" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="645" spans="2:9" x14ac:dyDescent="0.25">
@@ -17124,8 +17148,8 @@
       <c r="H645" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I645" s="2">
-        <v>0</v>
+      <c r="I645" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="646" spans="2:9" x14ac:dyDescent="0.25">
@@ -17150,8 +17174,8 @@
       <c r="H646" s="2">
         <v>4.3</v>
       </c>
-      <c r="I646" s="2">
-        <v>0</v>
+      <c r="I646" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="647" spans="2:9" x14ac:dyDescent="0.25">
@@ -17176,8 +17200,8 @@
       <c r="H647" s="2">
         <v>7.8</v>
       </c>
-      <c r="I647" s="2">
-        <v>1</v>
+      <c r="I647" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="648" spans="2:9" x14ac:dyDescent="0.25">
@@ -17202,8 +17226,8 @@
       <c r="H648" s="2">
         <v>4.8</v>
       </c>
-      <c r="I648" s="2">
-        <v>2</v>
+      <c r="I648" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="649" spans="2:9" x14ac:dyDescent="0.25">
@@ -17228,8 +17252,8 @@
       <c r="H649" s="2">
         <v>7.7</v>
       </c>
-      <c r="I649" s="2">
-        <v>1</v>
+      <c r="I649" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="650" spans="2:9" x14ac:dyDescent="0.25">
@@ -17254,8 +17278,8 @@
       <c r="H650" s="2">
         <v>18.7</v>
       </c>
-      <c r="I650" s="2">
-        <v>1</v>
+      <c r="I650" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="651" spans="2:9" x14ac:dyDescent="0.25">
@@ -17280,8 +17304,8 @@
       <c r="H651" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I651" s="2">
-        <v>1</v>
+      <c r="I651" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="652" spans="2:9" x14ac:dyDescent="0.25">
@@ -17306,8 +17330,8 @@
       <c r="H652" s="2">
         <v>12.9</v>
       </c>
-      <c r="I652" s="2">
-        <v>2</v>
+      <c r="I652" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="653" spans="2:9" x14ac:dyDescent="0.25">
@@ -17332,8 +17356,8 @@
       <c r="H653" s="2">
         <v>3.6</v>
       </c>
-      <c r="I653" s="2">
-        <v>0</v>
+      <c r="I653" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="654" spans="2:9" x14ac:dyDescent="0.25">
@@ -17358,8 +17382,8 @@
       <c r="H654" s="2">
         <v>6.5</v>
       </c>
-      <c r="I654" s="2">
-        <v>0</v>
+      <c r="I654" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="655" spans="2:9" x14ac:dyDescent="0.25">
@@ -17384,8 +17408,8 @@
       <c r="H655" s="2">
         <v>6.4</v>
       </c>
-      <c r="I655" s="2">
-        <v>2</v>
+      <c r="I655" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="656" spans="2:9" x14ac:dyDescent="0.25">
@@ -17410,8 +17434,8 @@
       <c r="H656" s="2">
         <v>7.8</v>
       </c>
-      <c r="I656" s="2">
-        <v>0</v>
+      <c r="I656" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="657" spans="2:9" x14ac:dyDescent="0.25">
@@ -17436,8 +17460,8 @@
       <c r="H657" s="2">
         <v>12.1</v>
       </c>
-      <c r="I657" s="2">
-        <v>1</v>
+      <c r="I657" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="2:9" x14ac:dyDescent="0.25">
@@ -17462,8 +17486,8 @@
       <c r="H658" s="2">
         <v>11.1</v>
       </c>
-      <c r="I658" s="2">
-        <v>1</v>
+      <c r="I658" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="659" spans="2:9" x14ac:dyDescent="0.25">
@@ -17488,8 +17512,8 @@
       <c r="H659" s="2">
         <v>5.4</v>
       </c>
-      <c r="I659" s="2">
-        <v>0</v>
+      <c r="I659" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="660" spans="2:9" x14ac:dyDescent="0.25">
@@ -17514,8 +17538,8 @@
       <c r="H660" s="2">
         <v>1</v>
       </c>
-      <c r="I660" s="2">
-        <v>0</v>
+      <c r="I660" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="661" spans="2:9" x14ac:dyDescent="0.25">
@@ -17540,8 +17564,8 @@
       <c r="H661" s="2">
         <v>1.3</v>
       </c>
-      <c r="I661" s="2">
-        <v>0</v>
+      <c r="I661" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="662" spans="2:9" x14ac:dyDescent="0.25">
@@ -17566,8 +17590,8 @@
       <c r="H662" s="2">
         <v>36.6</v>
       </c>
-      <c r="I662" s="2">
-        <v>2</v>
+      <c r="I662" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="663" spans="2:9" x14ac:dyDescent="0.25">
@@ -17592,8 +17616,8 @@
       <c r="H663" s="2">
         <v>9.4</v>
       </c>
-      <c r="I663" s="2">
-        <v>2</v>
+      <c r="I663" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="664" spans="2:9" x14ac:dyDescent="0.25">
@@ -17618,8 +17642,8 @@
       <c r="H664" s="2">
         <v>3.8</v>
       </c>
-      <c r="I664" s="2">
-        <v>0</v>
+      <c r="I664" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="665" spans="2:9" x14ac:dyDescent="0.25">
@@ -17644,8 +17668,8 @@
       <c r="H665" s="2">
         <v>10</v>
       </c>
-      <c r="I665" s="2">
-        <v>0</v>
+      <c r="I665" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="666" spans="2:9" x14ac:dyDescent="0.25">
@@ -17670,8 +17694,8 @@
       <c r="H666" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I666" s="2">
-        <v>0</v>
+      <c r="I666" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="667" spans="2:9" x14ac:dyDescent="0.25">
@@ -17696,8 +17720,8 @@
       <c r="H667" s="2">
         <v>4.7</v>
       </c>
-      <c r="I667" s="2">
-        <v>0</v>
+      <c r="I667" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="668" spans="2:9" x14ac:dyDescent="0.25">
@@ -17722,8 +17746,8 @@
       <c r="H668" s="2">
         <v>8.5</v>
       </c>
-      <c r="I668" s="2">
-        <v>1</v>
+      <c r="I668" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="2:9" x14ac:dyDescent="0.25">
@@ -17748,8 +17772,8 @@
       <c r="H669" s="2">
         <v>11.3</v>
       </c>
-      <c r="I669" s="2">
-        <v>0</v>
+      <c r="I669" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="670" spans="2:9" x14ac:dyDescent="0.25">
@@ -17774,8 +17798,8 @@
       <c r="H670" s="2">
         <v>3.3</v>
       </c>
-      <c r="I670" s="2">
-        <v>0</v>
+      <c r="I670" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="671" spans="2:9" x14ac:dyDescent="0.25">
@@ -17800,8 +17824,8 @@
       <c r="H671" s="2">
         <v>7.2</v>
       </c>
-      <c r="I671" s="2">
-        <v>0</v>
+      <c r="I671" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="672" spans="2:9" x14ac:dyDescent="0.25">
@@ -17826,8 +17850,8 @@
       <c r="H672" s="2">
         <v>6.6</v>
       </c>
-      <c r="I672" s="2">
-        <v>0</v>
+      <c r="I672" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="673" spans="2:9" x14ac:dyDescent="0.25">
@@ -17852,8 +17876,8 @@
       <c r="H673" s="2">
         <v>2.4</v>
       </c>
-      <c r="I673" s="2">
-        <v>0</v>
+      <c r="I673" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="674" spans="2:9" x14ac:dyDescent="0.25">
@@ -17878,8 +17902,8 @@
       <c r="H674" s="2">
         <v>10.3</v>
       </c>
-      <c r="I674" s="2">
-        <v>2</v>
+      <c r="I674" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="675" spans="2:9" x14ac:dyDescent="0.25">
@@ -17904,8 +17928,8 @@
       <c r="H675" s="2">
         <v>7.9</v>
       </c>
-      <c r="I675" s="2">
-        <v>1</v>
+      <c r="I675" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="676" spans="2:9" x14ac:dyDescent="0.25">
@@ -17930,8 +17954,8 @@
       <c r="H676" s="2">
         <v>6.9</v>
       </c>
-      <c r="I676" s="2">
-        <v>0</v>
+      <c r="I676" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="677" spans="2:9" x14ac:dyDescent="0.25">
@@ -17956,8 +17980,8 @@
       <c r="H677" s="2">
         <v>7.7</v>
       </c>
-      <c r="I677" s="2">
-        <v>1</v>
+      <c r="I677" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="678" spans="2:9" x14ac:dyDescent="0.25">
@@ -17982,8 +18006,8 @@
       <c r="H678" s="2">
         <v>6.5</v>
       </c>
-      <c r="I678" s="2">
-        <v>0</v>
+      <c r="I678" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="679" spans="2:9" x14ac:dyDescent="0.25">
@@ -18008,8 +18032,8 @@
       <c r="H679" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I679" s="2">
-        <v>0</v>
+      <c r="I679" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="2:9" x14ac:dyDescent="0.25">
@@ -18034,8 +18058,8 @@
       <c r="H680" s="2">
         <v>3.1</v>
       </c>
-      <c r="I680" s="2">
-        <v>1</v>
+      <c r="I680" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="681" spans="2:9" x14ac:dyDescent="0.25">
@@ -18060,8 +18084,8 @@
       <c r="H681" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I681" s="2">
-        <v>0</v>
+      <c r="I681" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="682" spans="2:9" x14ac:dyDescent="0.25">
@@ -18086,8 +18110,8 @@
       <c r="H682" s="2">
         <v>7.3</v>
       </c>
-      <c r="I682" s="2">
-        <v>0</v>
+      <c r="I682" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="683" spans="2:9" x14ac:dyDescent="0.25">
@@ -18112,8 +18136,8 @@
       <c r="H683" s="2">
         <v>17.3</v>
       </c>
-      <c r="I683" s="2">
-        <v>0</v>
+      <c r="I683" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="684" spans="2:9" x14ac:dyDescent="0.25">
@@ -18138,8 +18162,8 @@
       <c r="H684" s="2">
         <v>11.2</v>
       </c>
-      <c r="I684" s="2">
-        <v>0</v>
+      <c r="I684" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="685" spans="2:9" x14ac:dyDescent="0.25">
@@ -18164,8 +18188,8 @@
       <c r="H685" s="2">
         <v>14.7</v>
       </c>
-      <c r="I685" s="2">
-        <v>0</v>
+      <c r="I685" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="686" spans="2:9" x14ac:dyDescent="0.25">
@@ -18190,8 +18214,8 @@
       <c r="H686" s="2">
         <v>9</v>
       </c>
-      <c r="I686" s="2">
-        <v>0</v>
+      <c r="I686" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="687" spans="2:9" x14ac:dyDescent="0.25">
@@ -18216,8 +18240,8 @@
       <c r="H687" s="2">
         <v>17.8</v>
       </c>
-      <c r="I687" s="2">
-        <v>2</v>
+      <c r="I687" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="688" spans="2:9" x14ac:dyDescent="0.25">
@@ -18242,8 +18266,8 @@
       <c r="H688" s="2">
         <v>5.3</v>
       </c>
-      <c r="I688" s="2">
-        <v>1</v>
+      <c r="I688" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="689" spans="2:9" x14ac:dyDescent="0.25">
@@ -18268,8 +18292,8 @@
       <c r="H689" s="2">
         <v>7.7</v>
       </c>
-      <c r="I689" s="2">
-        <v>0</v>
+      <c r="I689" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="690" spans="2:9" x14ac:dyDescent="0.25">
@@ -18294,8 +18318,8 @@
       <c r="H690" s="2">
         <v>1.7</v>
       </c>
-      <c r="I690" s="2">
-        <v>0</v>
+      <c r="I690" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="691" spans="2:9" x14ac:dyDescent="0.25">
@@ -18320,8 +18344,8 @@
       <c r="H691" s="2">
         <v>18.7</v>
       </c>
-      <c r="I691" s="2">
-        <v>2</v>
+      <c r="I691" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="692" spans="2:9" x14ac:dyDescent="0.25">
@@ -18346,8 +18370,8 @@
       <c r="H692" s="2">
         <v>6.7</v>
       </c>
-      <c r="I692" s="2">
-        <v>0</v>
+      <c r="I692" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="693" spans="2:9" x14ac:dyDescent="0.25">
@@ -18372,8 +18396,8 @@
       <c r="H693" s="2">
         <v>5.4</v>
       </c>
-      <c r="I693" s="2">
-        <v>0</v>
+      <c r="I693" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="694" spans="2:9" x14ac:dyDescent="0.25">
@@ -18398,8 +18422,8 @@
       <c r="H694" s="2">
         <v>7.5</v>
       </c>
-      <c r="I694" s="2">
-        <v>0</v>
+      <c r="I694" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="695" spans="2:9" x14ac:dyDescent="0.25">
@@ -18424,8 +18448,8 @@
       <c r="H695" s="2">
         <v>6.3</v>
       </c>
-      <c r="I695" s="2">
-        <v>0</v>
+      <c r="I695" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="696" spans="2:9" x14ac:dyDescent="0.25">
@@ -18450,8 +18474,8 @@
       <c r="H696" s="2">
         <v>2.1</v>
       </c>
-      <c r="I696" s="2">
-        <v>2</v>
+      <c r="I696" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="697" spans="2:9" x14ac:dyDescent="0.25">
@@ -18476,8 +18500,8 @@
       <c r="H697" s="2">
         <v>9.5</v>
       </c>
-      <c r="I697" s="2">
-        <v>0</v>
+      <c r="I697" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="698" spans="2:9" x14ac:dyDescent="0.25">
@@ -18502,8 +18526,8 @@
       <c r="H698" s="2">
         <v>15</v>
       </c>
-      <c r="I698" s="2">
-        <v>1</v>
+      <c r="I698" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="699" spans="2:9" x14ac:dyDescent="0.25">
@@ -18528,8 +18552,8 @@
       <c r="H699" s="2">
         <v>6.4</v>
       </c>
-      <c r="I699" s="2">
-        <v>0</v>
+      <c r="I699" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="700" spans="2:9" x14ac:dyDescent="0.25">
@@ -18554,8 +18578,8 @@
       <c r="H700" s="2">
         <v>5.4</v>
       </c>
-      <c r="I700" s="2">
-        <v>0</v>
+      <c r="I700" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="701" spans="2:9" x14ac:dyDescent="0.25">
@@ -18580,8 +18604,8 @@
       <c r="H701" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="I701" s="2">
-        <v>0</v>
+      <c r="I701" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="702" spans="2:9" x14ac:dyDescent="0.25">
@@ -18606,8 +18630,8 @@
       <c r="H702" s="2">
         <v>8</v>
       </c>
-      <c r="I702" s="2">
-        <v>0</v>
+      <c r="I702" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="703" spans="2:9" x14ac:dyDescent="0.25">
@@ -18632,8 +18656,8 @@
       <c r="H703" s="2">
         <v>12.4</v>
       </c>
-      <c r="I703" s="2">
-        <v>0</v>
+      <c r="I703" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="704" spans="2:9" x14ac:dyDescent="0.25">
@@ -18658,8 +18682,8 @@
       <c r="H704" s="2">
         <v>11.4</v>
       </c>
-      <c r="I704" s="2">
-        <v>2</v>
+      <c r="I704" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="705" spans="2:9" x14ac:dyDescent="0.25">
@@ -18684,8 +18708,8 @@
       <c r="H705" s="2">
         <v>8.1</v>
       </c>
-      <c r="I705" s="2">
-        <v>0</v>
+      <c r="I705" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="706" spans="2:9" x14ac:dyDescent="0.25">
@@ -18710,8 +18734,8 @@
       <c r="H706" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="I706" s="2">
-        <v>2</v>
+      <c r="I706" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="707" spans="2:9" x14ac:dyDescent="0.25">
@@ -18736,8 +18760,8 @@
       <c r="H707" s="2">
         <v>5.2</v>
       </c>
-      <c r="I707" s="2">
-        <v>0</v>
+      <c r="I707" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="708" spans="2:9" x14ac:dyDescent="0.25">
@@ -18762,8 +18786,8 @@
       <c r="H708" s="2">
         <v>4.5</v>
       </c>
-      <c r="I708" s="2">
-        <v>2</v>
+      <c r="I708" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="709" spans="2:9" x14ac:dyDescent="0.25">
@@ -18788,8 +18812,8 @@
       <c r="H709" s="2">
         <v>9.6</v>
       </c>
-      <c r="I709" s="2">
-        <v>2</v>
+      <c r="I709" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="710" spans="2:9" x14ac:dyDescent="0.25">
@@ -18814,8 +18838,8 @@
       <c r="H710" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I710" s="2">
-        <v>0</v>
+      <c r="I710" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="711" spans="2:9" x14ac:dyDescent="0.25">
@@ -18840,8 +18864,8 @@
       <c r="H711" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="I711" s="2">
-        <v>0</v>
+      <c r="I711" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="712" spans="2:9" x14ac:dyDescent="0.25">
@@ -18866,8 +18890,8 @@
       <c r="H712" s="2">
         <v>1.5</v>
       </c>
-      <c r="I712" s="2">
-        <v>0</v>
+      <c r="I712" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="713" spans="2:9" x14ac:dyDescent="0.25">
@@ -18892,8 +18916,8 @@
       <c r="H713" s="2">
         <v>14.3</v>
       </c>
-      <c r="I713" s="2">
-        <v>1</v>
+      <c r="I713" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="714" spans="2:9" x14ac:dyDescent="0.25">
@@ -18918,8 +18942,8 @@
       <c r="H714" s="2">
         <v>14.8</v>
       </c>
-      <c r="I714" s="2">
-        <v>2</v>
+      <c r="I714" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="715" spans="2:9" x14ac:dyDescent="0.25">
@@ -18944,8 +18968,8 @@
       <c r="H715" s="2">
         <v>13.3</v>
       </c>
-      <c r="I715" s="2">
-        <v>1</v>
+      <c r="I715" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="716" spans="2:9" x14ac:dyDescent="0.25">
@@ -18970,8 +18994,8 @@
       <c r="H716" s="2">
         <v>4.3</v>
       </c>
-      <c r="I716" s="2">
-        <v>0</v>
+      <c r="I716" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="717" spans="2:9" x14ac:dyDescent="0.25">
@@ -18996,8 +19020,8 @@
       <c r="H717" s="2">
         <v>20.100000000000001</v>
       </c>
-      <c r="I717" s="2">
-        <v>1</v>
+      <c r="I717" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="718" spans="2:9" x14ac:dyDescent="0.25">
@@ -19022,8 +19046,8 @@
       <c r="H718" s="2">
         <v>14.4</v>
       </c>
-      <c r="I718" s="2">
-        <v>1</v>
+      <c r="I718" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="719" spans="2:9" x14ac:dyDescent="0.25">
@@ -19048,8 +19072,8 @@
       <c r="H719" s="2">
         <v>3.4</v>
       </c>
-      <c r="I719" s="2">
-        <v>0</v>
+      <c r="I719" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="720" spans="2:9" x14ac:dyDescent="0.25">
@@ -19074,8 +19098,8 @@
       <c r="H720" s="2">
         <v>27.7</v>
       </c>
-      <c r="I720" s="2">
-        <v>2</v>
+      <c r="I720" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="721" spans="2:9" x14ac:dyDescent="0.25">
@@ -19100,8 +19124,8 @@
       <c r="H721" s="2">
         <v>5</v>
       </c>
-      <c r="I721" s="2">
-        <v>0</v>
+      <c r="I721" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="722" spans="2:9" x14ac:dyDescent="0.25">
@@ -19126,8 +19150,8 @@
       <c r="H722" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I722" s="2">
-        <v>1</v>
+      <c r="I722" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="723" spans="2:9" x14ac:dyDescent="0.25">
@@ -19152,8 +19176,8 @@
       <c r="H723" s="2">
         <v>1.6</v>
       </c>
-      <c r="I723" s="2">
-        <v>0</v>
+      <c r="I723" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="724" spans="2:9" x14ac:dyDescent="0.25">
@@ -19178,8 +19202,8 @@
       <c r="H724" s="2">
         <v>17.3</v>
       </c>
-      <c r="I724" s="2">
-        <v>1</v>
+      <c r="I724" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="725" spans="2:9" x14ac:dyDescent="0.25">
@@ -19204,8 +19228,8 @@
       <c r="H725" s="2">
         <v>13.5</v>
       </c>
-      <c r="I725" s="2">
-        <v>0</v>
+      <c r="I725" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="726" spans="2:9" x14ac:dyDescent="0.25">
@@ -19230,8 +19254,8 @@
       <c r="H726" s="2">
         <v>13</v>
       </c>
-      <c r="I726" s="2">
-        <v>0</v>
+      <c r="I726" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="727" spans="2:9" x14ac:dyDescent="0.25">
@@ -19256,8 +19280,8 @@
       <c r="H727" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I727" s="2">
-        <v>0</v>
+      <c r="I727" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="728" spans="2:9" x14ac:dyDescent="0.25">
@@ -19282,8 +19306,8 @@
       <c r="H728" s="2">
         <v>15.9</v>
       </c>
-      <c r="I728" s="2">
-        <v>0</v>
+      <c r="I728" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="729" spans="2:9" x14ac:dyDescent="0.25">
@@ -19308,8 +19332,8 @@
       <c r="H729" s="2">
         <v>14.7</v>
       </c>
-      <c r="I729" s="2">
-        <v>0</v>
+      <c r="I729" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="730" spans="2:9" x14ac:dyDescent="0.25">
@@ -19334,8 +19358,8 @@
       <c r="H730" s="2">
         <v>7.2</v>
       </c>
-      <c r="I730" s="2">
-        <v>1</v>
+      <c r="I730" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="731" spans="2:9" x14ac:dyDescent="0.25">
@@ -19360,8 +19384,8 @@
       <c r="H731" s="2">
         <v>3.1</v>
       </c>
-      <c r="I731" s="2">
-        <v>0</v>
+      <c r="I731" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="732" spans="2:9" x14ac:dyDescent="0.25">
@@ -19386,8 +19410,8 @@
       <c r="H732" s="2">
         <v>11.7</v>
       </c>
-      <c r="I732" s="2">
-        <v>2</v>
+      <c r="I732" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="733" spans="2:9" x14ac:dyDescent="0.25">
@@ -19412,8 +19436,8 @@
       <c r="H733" s="2">
         <v>2</v>
       </c>
-      <c r="I733" s="2">
-        <v>0</v>
+      <c r="I733" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="734" spans="2:9" x14ac:dyDescent="0.25">
@@ -19438,8 +19462,8 @@
       <c r="H734" s="2">
         <v>10.4</v>
       </c>
-      <c r="I734" s="2">
-        <v>0</v>
+      <c r="I734" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="735" spans="2:9" x14ac:dyDescent="0.25">
@@ -19464,8 +19488,8 @@
       <c r="H735" s="2">
         <v>12.1</v>
       </c>
-      <c r="I735" s="2">
-        <v>1</v>
+      <c r="I735" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="736" spans="2:9" x14ac:dyDescent="0.25">
@@ -19490,8 +19514,8 @@
       <c r="H736" s="2">
         <v>10.4</v>
       </c>
-      <c r="I736" s="2">
-        <v>1</v>
+      <c r="I736" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="737" spans="2:9" x14ac:dyDescent="0.25">
@@ -19516,8 +19540,8 @@
       <c r="H737" s="2">
         <v>7.5</v>
       </c>
-      <c r="I737" s="2">
-        <v>0</v>
+      <c r="I737" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="738" spans="2:9" x14ac:dyDescent="0.25">
@@ -19542,8 +19566,8 @@
       <c r="H738" s="2">
         <v>0.7</v>
       </c>
-      <c r="I738" s="2">
-        <v>0</v>
+      <c r="I738" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="739" spans="2:9" x14ac:dyDescent="0.25">
@@ -19568,8 +19592,8 @@
       <c r="H739" s="2">
         <v>5.6</v>
       </c>
-      <c r="I739" s="2">
-        <v>1</v>
+      <c r="I739" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="740" spans="2:9" x14ac:dyDescent="0.25">
@@ -19594,8 +19618,8 @@
       <c r="H740" s="2">
         <v>5.7</v>
       </c>
-      <c r="I740" s="2">
-        <v>0</v>
+      <c r="I740" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="741" spans="2:9" x14ac:dyDescent="0.25">
@@ -19620,8 +19644,8 @@
       <c r="H741" s="2">
         <v>14</v>
       </c>
-      <c r="I741" s="2">
-        <v>0</v>
+      <c r="I741" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="742" spans="2:9" x14ac:dyDescent="0.25">
@@ -19646,8 +19670,8 @@
       <c r="H742" s="2">
         <v>7</v>
       </c>
-      <c r="I742" s="2">
-        <v>0</v>
+      <c r="I742" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="743" spans="2:9" x14ac:dyDescent="0.25">
@@ -19672,8 +19696,8 @@
       <c r="H743" s="2">
         <v>13.2</v>
       </c>
-      <c r="I743" s="2">
-        <v>0</v>
+      <c r="I743" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="744" spans="2:9" x14ac:dyDescent="0.25">
@@ -19698,8 +19722,8 @@
       <c r="H744" s="2">
         <v>6.7</v>
       </c>
-      <c r="I744" s="2">
-        <v>0</v>
+      <c r="I744" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="745" spans="2:9" x14ac:dyDescent="0.25">
@@ -19724,8 +19748,8 @@
       <c r="H745" s="2">
         <v>17</v>
       </c>
-      <c r="I745" s="2">
-        <v>0</v>
+      <c r="I745" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="746" spans="2:9" x14ac:dyDescent="0.25">
@@ -19750,8 +19774,8 @@
       <c r="H746" s="2">
         <v>3</v>
       </c>
-      <c r="I746" s="2">
-        <v>1</v>
+      <c r="I746" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="747" spans="2:9" x14ac:dyDescent="0.25">
@@ -19776,8 +19800,8 @@
       <c r="H747" s="2">
         <v>6.9</v>
       </c>
-      <c r="I747" s="2">
-        <v>0</v>
+      <c r="I747" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="748" spans="2:9" x14ac:dyDescent="0.25">
@@ -19802,8 +19826,8 @@
       <c r="H748" s="2">
         <v>23.1</v>
       </c>
-      <c r="I748" s="2">
-        <v>2</v>
+      <c r="I748" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="749" spans="2:9" x14ac:dyDescent="0.25">
@@ -19828,8 +19852,8 @@
       <c r="H749" s="2">
         <v>6.4</v>
       </c>
-      <c r="I749" s="2">
-        <v>0</v>
+      <c r="I749" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="750" spans="2:9" x14ac:dyDescent="0.25">
@@ -19854,8 +19878,8 @@
       <c r="H750" s="2">
         <v>4.2</v>
       </c>
-      <c r="I750" s="2">
-        <v>1</v>
+      <c r="I750" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="751" spans="2:9" x14ac:dyDescent="0.25">
@@ -19880,8 +19904,8 @@
       <c r="H751" s="2">
         <v>2.5</v>
       </c>
-      <c r="I751" s="2">
-        <v>1</v>
+      <c r="I751" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="752" spans="2:9" x14ac:dyDescent="0.25">
@@ -19906,8 +19930,8 @@
       <c r="H752" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I752" s="2">
-        <v>0</v>
+      <c r="I752" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="753" spans="2:9" x14ac:dyDescent="0.25">
@@ -19932,8 +19956,8 @@
       <c r="H753" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="I753" s="2">
-        <v>0</v>
+      <c r="I753" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="754" spans="2:9" x14ac:dyDescent="0.25">
@@ -19958,8 +19982,8 @@
       <c r="H754" s="2">
         <v>10.8</v>
       </c>
-      <c r="I754" s="2">
-        <v>0</v>
+      <c r="I754" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="755" spans="2:9" x14ac:dyDescent="0.25">
@@ -19984,8 +20008,8 @@
       <c r="H755" s="2">
         <v>13</v>
       </c>
-      <c r="I755" s="2">
-        <v>0</v>
+      <c r="I755" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="756" spans="2:9" x14ac:dyDescent="0.25">
@@ -20010,8 +20034,8 @@
       <c r="H756" s="2">
         <v>9.1</v>
       </c>
-      <c r="I756" s="2">
-        <v>0</v>
+      <c r="I756" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="757" spans="2:9" x14ac:dyDescent="0.25">
@@ -20036,8 +20060,8 @@
       <c r="H757" s="2">
         <v>6.1</v>
       </c>
-      <c r="I757" s="2">
-        <v>0</v>
+      <c r="I757" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="758" spans="2:9" x14ac:dyDescent="0.25">
@@ -20062,8 +20086,8 @@
       <c r="H758" s="2">
         <v>18.7</v>
       </c>
-      <c r="I758" s="2">
-        <v>0</v>
+      <c r="I758" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="759" spans="2:9" x14ac:dyDescent="0.25">
@@ -20088,8 +20112,8 @@
       <c r="H759" s="2">
         <v>15.6</v>
       </c>
-      <c r="I759" s="2">
-        <v>2</v>
+      <c r="I759" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="760" spans="2:9" x14ac:dyDescent="0.25">
@@ -20114,8 +20138,8 @@
       <c r="H760" s="2">
         <v>10.4</v>
       </c>
-      <c r="I760" s="2">
-        <v>0</v>
+      <c r="I760" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="761" spans="2:9" x14ac:dyDescent="0.25">
@@ -20140,8 +20164,8 @@
       <c r="H761" s="2">
         <v>6.8</v>
       </c>
-      <c r="I761" s="2">
-        <v>0</v>
+      <c r="I761" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="762" spans="2:9" x14ac:dyDescent="0.25">
@@ -20166,8 +20190,8 @@
       <c r="H762" s="2">
         <v>6</v>
       </c>
-      <c r="I762" s="2">
-        <v>0</v>
+      <c r="I762" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="763" spans="2:9" x14ac:dyDescent="0.25">
@@ -20192,8 +20216,8 @@
       <c r="H763" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I763" s="2">
-        <v>1</v>
+      <c r="I763" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="764" spans="2:9" x14ac:dyDescent="0.25">
@@ -20218,8 +20242,8 @@
       <c r="H764" s="2">
         <v>25.7</v>
       </c>
-      <c r="I764" s="2">
-        <v>2</v>
+      <c r="I764" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="765" spans="2:9" x14ac:dyDescent="0.25">
@@ -20244,8 +20268,8 @@
       <c r="H765" s="2">
         <v>14.6</v>
       </c>
-      <c r="I765" s="2">
-        <v>1</v>
+      <c r="I765" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="766" spans="2:9" x14ac:dyDescent="0.25">
@@ -20270,8 +20294,8 @@
       <c r="H766" s="2">
         <v>18.399999999999999</v>
       </c>
-      <c r="I766" s="2">
-        <v>1</v>
+      <c r="I766" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="767" spans="2:9" x14ac:dyDescent="0.25">
@@ -20296,8 +20320,8 @@
       <c r="H767" s="2">
         <v>12</v>
       </c>
-      <c r="I767" s="2">
-        <v>0</v>
+      <c r="I767" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="768" spans="2:9" x14ac:dyDescent="0.25">
@@ -20322,8 +20346,8 @@
       <c r="H768" s="2">
         <v>2.4</v>
       </c>
-      <c r="I768" s="2">
-        <v>0</v>
+      <c r="I768" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="769" spans="2:9" x14ac:dyDescent="0.25">
@@ -20348,8 +20372,8 @@
       <c r="H769" s="2">
         <v>7.3</v>
       </c>
-      <c r="I769" s="2">
-        <v>0</v>
+      <c r="I769" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="770" spans="2:9" x14ac:dyDescent="0.25">
@@ -20374,8 +20398,8 @@
       <c r="H770" s="2">
         <v>8</v>
       </c>
-      <c r="I770" s="2">
-        <v>2</v>
+      <c r="I770" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="771" spans="2:9" x14ac:dyDescent="0.25">
@@ -20400,8 +20424,8 @@
       <c r="H771" s="2">
         <v>3</v>
       </c>
-      <c r="I771" s="2">
-        <v>0</v>
+      <c r="I771" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="772" spans="2:9" x14ac:dyDescent="0.25">
@@ -20426,8 +20450,8 @@
       <c r="H772" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I772" s="2">
-        <v>0</v>
+      <c r="I772" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="773" spans="2:9" x14ac:dyDescent="0.25">
@@ -20452,8 +20476,8 @@
       <c r="H773" s="2">
         <v>7</v>
       </c>
-      <c r="I773" s="2">
-        <v>0</v>
+      <c r="I773" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="774" spans="2:9" x14ac:dyDescent="0.25">
@@ -20478,8 +20502,8 @@
       <c r="H774" s="2">
         <v>6.1</v>
       </c>
-      <c r="I774" s="2">
-        <v>2</v>
+      <c r="I774" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="775" spans="2:9" x14ac:dyDescent="0.25">
@@ -20504,8 +20528,8 @@
       <c r="H775" s="2">
         <v>5.6</v>
       </c>
-      <c r="I775" s="2">
-        <v>2</v>
+      <c r="I775" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="776" spans="2:9" x14ac:dyDescent="0.25">
@@ -20530,8 +20554,8 @@
       <c r="H776" s="2">
         <v>9</v>
       </c>
-      <c r="I776" s="2">
-        <v>0</v>
+      <c r="I776" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="777" spans="2:9" x14ac:dyDescent="0.25">
@@ -20556,8 +20580,8 @@
       <c r="H777" s="2">
         <v>13.6</v>
       </c>
-      <c r="I777" s="2">
-        <v>2</v>
+      <c r="I777" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="778" spans="2:9" x14ac:dyDescent="0.25">
@@ -20582,8 +20606,8 @@
       <c r="H778" s="2">
         <v>1.3</v>
       </c>
-      <c r="I778" s="2">
-        <v>0</v>
+      <c r="I778" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="779" spans="2:9" x14ac:dyDescent="0.25">
@@ -20608,8 +20632,8 @@
       <c r="H779" s="2">
         <v>14.7</v>
       </c>
-      <c r="I779" s="2">
-        <v>0</v>
+      <c r="I779" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="780" spans="2:9" x14ac:dyDescent="0.25">
@@ -20634,8 +20658,8 @@
       <c r="H780" s="2">
         <v>9.4</v>
       </c>
-      <c r="I780" s="2">
-        <v>1</v>
+      <c r="I780" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="781" spans="2:9" x14ac:dyDescent="0.25">
@@ -20660,8 +20684,8 @@
       <c r="H781" s="2">
         <v>32.4</v>
       </c>
-      <c r="I781" s="2">
-        <v>1</v>
+      <c r="I781" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="782" spans="2:9" x14ac:dyDescent="0.25">
@@ -20686,8 +20710,8 @@
       <c r="H782" s="2">
         <v>9.5</v>
       </c>
-      <c r="I782" s="2">
-        <v>0</v>
+      <c r="I782" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="783" spans="2:9" x14ac:dyDescent="0.25">
@@ -20712,8 +20736,8 @@
       <c r="H783" s="2">
         <v>9.5</v>
       </c>
-      <c r="I783" s="2">
-        <v>1</v>
+      <c r="I783" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="784" spans="2:9" x14ac:dyDescent="0.25">
@@ -20738,8 +20762,8 @@
       <c r="H784" s="2">
         <v>22.3</v>
       </c>
-      <c r="I784" s="2">
-        <v>0</v>
+      <c r="I784" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="785" spans="2:9" x14ac:dyDescent="0.25">
@@ -20764,8 +20788,8 @@
       <c r="H785" s="2">
         <v>1.6</v>
       </c>
-      <c r="I785" s="2">
-        <v>0</v>
+      <c r="I785" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="786" spans="2:9" x14ac:dyDescent="0.25">
@@ -20790,8 +20814,8 @@
       <c r="H786" s="2">
         <v>6.2</v>
       </c>
-      <c r="I786" s="2">
-        <v>0</v>
+      <c r="I786" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="787" spans="2:9" x14ac:dyDescent="0.25">
@@ -20816,8 +20840,8 @@
       <c r="H787" s="2">
         <v>5.7</v>
       </c>
-      <c r="I787" s="2">
-        <v>0</v>
+      <c r="I787" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="788" spans="2:9" x14ac:dyDescent="0.25">
@@ -20842,8 +20866,8 @@
       <c r="H788" s="2">
         <v>8.9</v>
       </c>
-      <c r="I788" s="2">
-        <v>0</v>
+      <c r="I788" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="789" spans="2:9" x14ac:dyDescent="0.25">
@@ -20868,8 +20892,8 @@
       <c r="H789" s="2">
         <v>20.5</v>
       </c>
-      <c r="I789" s="2">
-        <v>1</v>
+      <c r="I789" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="790" spans="2:9" x14ac:dyDescent="0.25">
@@ -20894,8 +20918,8 @@
       <c r="H790" s="2">
         <v>4.5</v>
       </c>
-      <c r="I790" s="2">
-        <v>0</v>
+      <c r="I790" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="791" spans="2:9" x14ac:dyDescent="0.25">
@@ -20920,8 +20944,8 @@
       <c r="H791" s="2">
         <v>2.1</v>
       </c>
-      <c r="I791" s="2">
-        <v>0</v>
+      <c r="I791" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="792" spans="2:9" x14ac:dyDescent="0.25">
@@ -20946,8 +20970,8 @@
       <c r="H792" s="2">
         <v>11.3</v>
       </c>
-      <c r="I792" s="2">
-        <v>0</v>
+      <c r="I792" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="793" spans="2:9" x14ac:dyDescent="0.25">
@@ -20972,8 +20996,8 @@
       <c r="H793" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I793" s="2">
-        <v>0</v>
+      <c r="I793" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="794" spans="2:9" x14ac:dyDescent="0.25">
@@ -20998,8 +21022,8 @@
       <c r="H794" s="2">
         <v>7.9</v>
       </c>
-      <c r="I794" s="2">
-        <v>0</v>
+      <c r="I794" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="795" spans="2:9" x14ac:dyDescent="0.25">
@@ -21024,8 +21048,8 @@
       <c r="H795" s="2">
         <v>5.6</v>
       </c>
-      <c r="I795" s="2">
-        <v>0</v>
+      <c r="I795" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="796" spans="2:9" x14ac:dyDescent="0.25">
@@ -21050,8 +21074,8 @@
       <c r="H796" s="2">
         <v>7</v>
       </c>
-      <c r="I796" s="2">
-        <v>1</v>
+      <c r="I796" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="797" spans="2:9" x14ac:dyDescent="0.25">
@@ -21076,8 +21100,8 @@
       <c r="H797" s="2">
         <v>13.2</v>
       </c>
-      <c r="I797" s="2">
-        <v>1</v>
+      <c r="I797" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="798" spans="2:9" x14ac:dyDescent="0.25">
@@ -21102,8 +21126,8 @@
       <c r="H798" s="2">
         <v>13.6</v>
       </c>
-      <c r="I798" s="2">
-        <v>2</v>
+      <c r="I798" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="799" spans="2:9" x14ac:dyDescent="0.25">
@@ -21128,8 +21152,8 @@
       <c r="H799" s="2">
         <v>3.7</v>
       </c>
-      <c r="I799" s="2">
-        <v>2</v>
+      <c r="I799" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="800" spans="2:9" x14ac:dyDescent="0.25">
@@ -21154,8 +21178,8 @@
       <c r="H800" s="2">
         <v>3.7</v>
       </c>
-      <c r="I800" s="2">
-        <v>0</v>
+      <c r="I800" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="801" spans="2:9" x14ac:dyDescent="0.25">
@@ -21180,8 +21204,8 @@
       <c r="H801" s="2">
         <v>12.1</v>
       </c>
-      <c r="I801" s="2">
-        <v>2</v>
+      <c r="I801" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="802" spans="2:9" x14ac:dyDescent="0.25">
@@ -21206,8 +21230,8 @@
       <c r="H802" s="2">
         <v>1.9</v>
       </c>
-      <c r="I802" s="2">
-        <v>0</v>
+      <c r="I802" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="803" spans="2:9" x14ac:dyDescent="0.25">
@@ -21232,8 +21256,8 @@
       <c r="H803" s="2">
         <v>16.5</v>
       </c>
-      <c r="I803" s="2">
-        <v>0</v>
+      <c r="I803" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="804" spans="2:9" x14ac:dyDescent="0.25">
@@ -21258,8 +21282,8 @@
       <c r="H804" s="2">
         <v>6.7</v>
       </c>
-      <c r="I804" s="2">
-        <v>0</v>
+      <c r="I804" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="805" spans="2:9" x14ac:dyDescent="0.25">
@@ -21284,8 +21308,8 @@
       <c r="H805" s="2">
         <v>2.8</v>
       </c>
-      <c r="I805" s="2">
-        <v>0</v>
+      <c r="I805" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="806" spans="2:9" x14ac:dyDescent="0.25">
@@ -21310,8 +21334,8 @@
       <c r="H806" s="2">
         <v>6.4</v>
       </c>
-      <c r="I806" s="2">
-        <v>1</v>
+      <c r="I806" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="807" spans="2:9" x14ac:dyDescent="0.25">
@@ -21336,8 +21360,8 @@
       <c r="H807" s="2">
         <v>7.5</v>
       </c>
-      <c r="I807" s="2">
-        <v>2</v>
+      <c r="I807" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="808" spans="2:9" x14ac:dyDescent="0.25">
@@ -21362,8 +21386,8 @@
       <c r="H808" s="2">
         <v>16.3</v>
       </c>
-      <c r="I808" s="2">
-        <v>0</v>
+      <c r="I808" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="809" spans="2:9" x14ac:dyDescent="0.25">
@@ -21388,8 +21412,8 @@
       <c r="H809" s="2">
         <v>8.5</v>
       </c>
-      <c r="I809" s="2">
-        <v>0</v>
+      <c r="I809" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="810" spans="2:9" x14ac:dyDescent="0.25">
@@ -21414,8 +21438,8 @@
       <c r="H810" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I810" s="2">
-        <v>0</v>
+      <c r="I810" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="811" spans="2:9" x14ac:dyDescent="0.25">
@@ -21440,8 +21464,8 @@
       <c r="H811" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I811" s="2">
-        <v>0</v>
+      <c r="I811" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="812" spans="2:9" x14ac:dyDescent="0.25">
@@ -21466,8 +21490,8 @@
       <c r="H812" s="2">
         <v>7.4</v>
       </c>
-      <c r="I812" s="2">
-        <v>0</v>
+      <c r="I812" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="813" spans="2:9" x14ac:dyDescent="0.25">
@@ -21492,8 +21516,8 @@
       <c r="H813" s="2">
         <v>15</v>
       </c>
-      <c r="I813" s="2">
-        <v>1</v>
+      <c r="I813" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="814" spans="2:9" x14ac:dyDescent="0.25">
@@ -21518,8 +21542,8 @@
       <c r="H814" s="2">
         <v>23.1</v>
       </c>
-      <c r="I814" s="2">
-        <v>2</v>
+      <c r="I814" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="815" spans="2:9" x14ac:dyDescent="0.25">
@@ -21544,8 +21568,8 @@
       <c r="H815" s="2">
         <v>7.5</v>
       </c>
-      <c r="I815" s="2">
-        <v>0</v>
+      <c r="I815" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="816" spans="2:9" x14ac:dyDescent="0.25">
@@ -21570,8 +21594,8 @@
       <c r="H816" s="2">
         <v>10.5</v>
       </c>
-      <c r="I816" s="2">
-        <v>0</v>
+      <c r="I816" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="817" spans="2:9" x14ac:dyDescent="0.25">
@@ -21596,8 +21620,8 @@
       <c r="H817" s="2">
         <v>1.2</v>
       </c>
-      <c r="I817" s="2">
-        <v>0</v>
+      <c r="I817" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="818" spans="2:9" x14ac:dyDescent="0.25">
@@ -21622,8 +21646,8 @@
       <c r="H818" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I818" s="2">
-        <v>2</v>
+      <c r="I818" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="819" spans="2:9" x14ac:dyDescent="0.25">
@@ -21648,8 +21672,8 @@
       <c r="H819" s="2">
         <v>6.4</v>
       </c>
-      <c r="I819" s="2">
-        <v>0</v>
+      <c r="I819" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="820" spans="2:9" x14ac:dyDescent="0.25">
@@ -21674,8 +21698,8 @@
       <c r="H820" s="2">
         <v>3.8</v>
       </c>
-      <c r="I820" s="2">
-        <v>0</v>
+      <c r="I820" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="821" spans="2:9" x14ac:dyDescent="0.25">
@@ -21700,8 +21724,8 @@
       <c r="H821" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I821" s="2">
-        <v>2</v>
+      <c r="I821" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="822" spans="2:9" x14ac:dyDescent="0.25">
@@ -21726,8 +21750,8 @@
       <c r="H822" s="2">
         <v>3.8</v>
       </c>
-      <c r="I822" s="2">
-        <v>0</v>
+      <c r="I822" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="823" spans="2:9" x14ac:dyDescent="0.25">
@@ -21752,8 +21776,8 @@
       <c r="H823" s="2">
         <v>12.4</v>
       </c>
-      <c r="I823" s="2">
-        <v>0</v>
+      <c r="I823" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="824" spans="2:9" x14ac:dyDescent="0.25">
@@ -21778,8 +21802,8 @@
       <c r="H824" s="2">
         <v>9.9</v>
       </c>
-      <c r="I824" s="2">
-        <v>0</v>
+      <c r="I824" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="825" spans="2:9" x14ac:dyDescent="0.25">
@@ -21804,8 +21828,8 @@
       <c r="H825" s="2">
         <v>14.2</v>
       </c>
-      <c r="I825" s="2">
-        <v>0</v>
+      <c r="I825" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="826" spans="2:9" x14ac:dyDescent="0.25">
@@ -21830,8 +21854,8 @@
       <c r="H826" s="2">
         <v>21</v>
       </c>
-      <c r="I826" s="2">
-        <v>0</v>
+      <c r="I826" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="827" spans="2:9" x14ac:dyDescent="0.25">
@@ -21856,8 +21880,8 @@
       <c r="H827" s="2">
         <v>2.1</v>
       </c>
-      <c r="I827" s="2">
-        <v>0</v>
+      <c r="I827" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="828" spans="2:9" x14ac:dyDescent="0.25">
@@ -21882,8 +21906,8 @@
       <c r="H828" s="2">
         <v>12.7</v>
       </c>
-      <c r="I828" s="2">
-        <v>2</v>
+      <c r="I828" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="829" spans="2:9" x14ac:dyDescent="0.25">
@@ -21908,8 +21932,8 @@
       <c r="H829" s="2">
         <v>19.2</v>
       </c>
-      <c r="I829" s="2">
-        <v>2</v>
+      <c r="I829" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="830" spans="2:9" x14ac:dyDescent="0.25">
@@ -21934,8 +21958,8 @@
       <c r="H830" s="2">
         <v>5.7</v>
       </c>
-      <c r="I830" s="2">
-        <v>1</v>
+      <c r="I830" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="831" spans="2:9" x14ac:dyDescent="0.25">
@@ -21960,8 +21984,8 @@
       <c r="H831" s="2">
         <v>30.8</v>
       </c>
-      <c r="I831" s="2">
-        <v>1</v>
+      <c r="I831" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="832" spans="2:9" x14ac:dyDescent="0.25">
@@ -21986,8 +22010,8 @@
       <c r="H832" s="2">
         <v>14.3</v>
       </c>
-      <c r="I832" s="2">
-        <v>0</v>
+      <c r="I832" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="833" spans="2:9" x14ac:dyDescent="0.25">
@@ -22012,8 +22036,8 @@
       <c r="H833" s="2">
         <v>4.2</v>
       </c>
-      <c r="I833" s="2">
-        <v>0</v>
+      <c r="I833" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="834" spans="2:9" x14ac:dyDescent="0.25">
@@ -22038,8 +22062,8 @@
       <c r="H834" s="2">
         <v>4.5</v>
       </c>
-      <c r="I834" s="2">
-        <v>0</v>
+      <c r="I834" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="835" spans="2:9" x14ac:dyDescent="0.25">
@@ -22064,8 +22088,8 @@
       <c r="H835" s="2">
         <v>21.3</v>
       </c>
-      <c r="I835" s="2">
-        <v>2</v>
+      <c r="I835" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="836" spans="2:9" x14ac:dyDescent="0.25">
@@ -22090,8 +22114,8 @@
       <c r="H836" s="2">
         <v>11.9</v>
       </c>
-      <c r="I836" s="2">
-        <v>0</v>
+      <c r="I836" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="837" spans="2:9" x14ac:dyDescent="0.25">
@@ -22116,8 +22140,8 @@
       <c r="H837" s="2">
         <v>15.4</v>
       </c>
-      <c r="I837" s="2">
-        <v>0</v>
+      <c r="I837" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="838" spans="2:9" x14ac:dyDescent="0.25">
@@ -22142,8 +22166,8 @@
       <c r="H838" s="2">
         <v>15.7</v>
       </c>
-      <c r="I838" s="2">
-        <v>0</v>
+      <c r="I838" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="839" spans="2:9" x14ac:dyDescent="0.25">
@@ -22168,8 +22192,8 @@
       <c r="H839" s="2">
         <v>8.6</v>
       </c>
-      <c r="I839" s="2">
-        <v>0</v>
+      <c r="I839" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="840" spans="2:9" x14ac:dyDescent="0.25">
@@ -22194,8 +22218,8 @@
       <c r="H840" s="2">
         <v>19.5</v>
       </c>
-      <c r="I840" s="2">
-        <v>0</v>
+      <c r="I840" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="841" spans="2:9" x14ac:dyDescent="0.25">
@@ -22220,8 +22244,8 @@
       <c r="H841" s="2">
         <v>6.3</v>
       </c>
-      <c r="I841" s="2">
-        <v>0</v>
+      <c r="I841" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="842" spans="2:9" x14ac:dyDescent="0.25">
@@ -22246,8 +22270,8 @@
       <c r="H842" s="2">
         <v>14.4</v>
       </c>
-      <c r="I842" s="2">
-        <v>0</v>
+      <c r="I842" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="843" spans="2:9" x14ac:dyDescent="0.25">
@@ -22272,8 +22296,8 @@
       <c r="H843" s="2">
         <v>7.1</v>
       </c>
-      <c r="I843" s="2">
-        <v>0</v>
+      <c r="I843" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="844" spans="2:9" x14ac:dyDescent="0.25">
@@ -22298,8 +22322,8 @@
       <c r="H844" s="2">
         <v>6.7</v>
       </c>
-      <c r="I844" s="2">
-        <v>0</v>
+      <c r="I844" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="845" spans="2:9" x14ac:dyDescent="0.25">
@@ -22324,8 +22348,8 @@
       <c r="H845" s="2">
         <v>5.7</v>
       </c>
-      <c r="I845" s="2">
-        <v>0</v>
+      <c r="I845" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="846" spans="2:9" x14ac:dyDescent="0.25">
@@ -22350,8 +22374,8 @@
       <c r="H846" s="2">
         <v>5.5</v>
       </c>
-      <c r="I846" s="2">
-        <v>0</v>
+      <c r="I846" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="847" spans="2:9" x14ac:dyDescent="0.25">
@@ -22376,8 +22400,8 @@
       <c r="H847" s="2">
         <v>2.4</v>
       </c>
-      <c r="I847" s="2">
-        <v>0</v>
+      <c r="I847" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="848" spans="2:9" x14ac:dyDescent="0.25">
@@ -22402,8 +22426,8 @@
       <c r="H848" s="2">
         <v>3.7</v>
       </c>
-      <c r="I848" s="2">
-        <v>0</v>
+      <c r="I848" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="849" spans="2:9" x14ac:dyDescent="0.25">
@@ -22428,8 +22452,8 @@
       <c r="H849" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I849" s="2">
-        <v>0</v>
+      <c r="I849" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="850" spans="2:9" x14ac:dyDescent="0.25">
@@ -22454,8 +22478,8 @@
       <c r="H850" s="2">
         <v>6.8</v>
       </c>
-      <c r="I850" s="2">
-        <v>0</v>
+      <c r="I850" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="851" spans="2:9" x14ac:dyDescent="0.25">
@@ -22480,8 +22504,8 @@
       <c r="H851" s="2">
         <v>7</v>
       </c>
-      <c r="I851" s="2">
-        <v>0</v>
+      <c r="I851" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="852" spans="2:9" x14ac:dyDescent="0.25">
@@ -22506,8 +22530,8 @@
       <c r="H852" s="2">
         <v>33.4</v>
       </c>
-      <c r="I852" s="2">
-        <v>2</v>
+      <c r="I852" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="853" spans="2:9" x14ac:dyDescent="0.25">
@@ -22532,8 +22556,8 @@
       <c r="H853" s="2">
         <v>2.9</v>
       </c>
-      <c r="I853" s="2">
-        <v>0</v>
+      <c r="I853" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="2:9" x14ac:dyDescent="0.25">
@@ -22558,8 +22582,8 @@
       <c r="H854" s="2">
         <v>8.6</v>
       </c>
-      <c r="I854" s="2">
-        <v>1</v>
+      <c r="I854" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/DataFrame_Customers_with_Cluster.xlsx
+++ b/Data/DataFrame_Customers_with_Cluster.xlsx
@@ -8,28 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\DataEnrichment\Project-4-How_to_Market_New_Cards\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0800DBC6-76A1-4574-8892-59BF515E8CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8001653F-034A-4D0C-BC64-A0DAE3497239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -87,18 +73,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -128,16 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,46 +420,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:I854"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="13.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22589,16 +22564,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88A2FE7-E8DC-4C37-92E0-10005D086883}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>